--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_EQ组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_EQ组.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.0.1 新特性|Fix Bug'!$A$1:$S$20</definedName>
+  </definedNames>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
   <si>
     <t>No</t>
   </si>
@@ -158,9 +161,6 @@
     <t>【租客PC】解决部分房源同步房态后集中式公寓标志变成空的问题</t>
   </si>
   <si>
-    <t>【租客PC】地图找房速度的优化（搜索引擎）</t>
-  </si>
-  <si>
     <t>【BS】CMS性能初步优化</t>
   </si>
   <si>
@@ -170,50 +170,76 @@
     <t>纪林强</t>
   </si>
   <si>
+    <t>【租客App】我的账单模块：无效的签约单对应的账单不显示</t>
+  </si>
+  <si>
+    <t>对应backlog序号</t>
+  </si>
+  <si>
+    <t>bug描述</t>
+  </si>
+  <si>
+    <t>影响数据范围</t>
+  </si>
+  <si>
+    <t>影响级别</t>
+  </si>
+  <si>
+    <t>是否修正</t>
+  </si>
+  <si>
+    <t>预计修正时间</t>
+  </si>
+  <si>
+    <t>修正的方式（是脚本修复还是功能工具修复）</t>
+  </si>
+  <si>
+    <t>修正负责人</t>
+  </si>
+  <si>
+    <t>周蓉</t>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客App】查询支付状态接口做容错处理，防止支付账务错乱</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>【租客App】提现消息内容修改</t>
-  </si>
-  <si>
-    <t>【租客App】我的账单模块：无效的签约单对应的账单不显示</t>
-  </si>
-  <si>
-    <t>【租客App】查询支付状态接口做容错处理，防止支付账务错乱</t>
-  </si>
-  <si>
-    <t>对应backlog序号</t>
-  </si>
-  <si>
-    <t>bug描述</t>
-  </si>
-  <si>
-    <t>影响数据范围</t>
-  </si>
-  <si>
-    <t>影响级别</t>
-  </si>
-  <si>
-    <t>是否修正</t>
-  </si>
-  <si>
-    <t>预计修正时间</t>
-  </si>
-  <si>
-    <t>修正的方式（是脚本修复还是功能工具修复）</t>
-  </si>
-  <si>
-    <t>修正负责人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单计划黑屏待解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加社区文章马上显示就出现了一次 待开发查找原因（偶然性）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="27">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -239,111 +265,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -355,60 +278,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -423,198 +303,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -702,265 +396,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1060,63 +512,85 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="7">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="甘特图" xfId="19"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
-    <cellStyle name="常规 9" xfId="22"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="常规 3 12" xfId="48"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="53"/>
-    <cellStyle name="常规 3" xfId="54"/>
+    <cellStyle name="常规 2" xfId="5"/>
+    <cellStyle name="常规 3" xfId="6"/>
+    <cellStyle name="常规 3 12" xfId="4"/>
+    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 9" xfId="3"/>
+    <cellStyle name="甘特图" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1128,7 +602,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1448,16 +922,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:T193"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1483,7 +956,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="8" customFormat="1" ht="27.75" spans="1:19">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1574,8 +1047,12 @@
       <c r="K2" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="16"/>
-      <c r="M2" s="24"/>
+      <c r="L2" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="N2" s="17"/>
       <c r="O2" s="24"/>
       <c r="P2" s="25"/>
@@ -1584,7 +1061,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1616,8 +1093,12 @@
       <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="16"/>
-      <c r="M3" s="24"/>
+      <c r="L3" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="N3" s="17"/>
       <c r="O3" s="24"/>
       <c r="P3" s="25"/>
@@ -1626,7 +1107,7 @@
       <c r="S3" s="29"/>
       <c r="T3" s="30"/>
     </row>
-    <row r="4" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="4" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="14">
         <v>3</v>
       </c>
@@ -1658,8 +1139,12 @@
       <c r="K4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="N4" s="17"/>
       <c r="O4" s="24"/>
       <c r="P4" s="25"/>
@@ -1668,7 +1153,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1700,8 +1185,12 @@
       <c r="K5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="24"/>
+      <c r="L5" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="N5" s="17"/>
       <c r="O5" s="24"/>
       <c r="P5" s="25"/>
@@ -1710,7 +1199,7 @@
       <c r="S5" s="29"/>
       <c r="T5" s="30"/>
     </row>
-    <row r="6" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="6" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A6" s="14">
         <v>5</v>
       </c>
@@ -1742,7 +1231,9 @@
       <c r="K6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="16"/>
+      <c r="L6" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="M6" s="24"/>
       <c r="N6" s="17"/>
       <c r="O6" s="24"/>
@@ -1752,7 +1243,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1784,8 +1275,12 @@
       <c r="K7" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="N7" s="17"/>
       <c r="O7" s="24"/>
       <c r="P7" s="25"/>
@@ -1794,7 +1289,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1826,8 +1321,12 @@
       <c r="K8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="24"/>
+      <c r="L8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="N8" s="17"/>
       <c r="O8" s="24"/>
       <c r="P8" s="25"/>
@@ -1836,7 +1335,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1868,8 +1367,12 @@
       <c r="K9" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="16"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M9" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="N9" s="17"/>
       <c r="O9" s="24"/>
       <c r="P9" s="25"/>
@@ -1878,7 +1381,7 @@
       <c r="S9" s="29"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1910,8 +1413,12 @@
       <c r="K10" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="N10" s="17"/>
       <c r="O10" s="24"/>
       <c r="P10" s="25"/>
@@ -1920,7 +1427,7 @@
       <c r="S10" s="29"/>
       <c r="T10" s="30"/>
     </row>
-    <row r="11" s="9" customFormat="1" ht="33" spans="1:20">
+    <row r="11" spans="1:20" s="9" customFormat="1" ht="33">
       <c r="A11" s="14">
         <v>10</v>
       </c>
@@ -1952,8 +1459,12 @@
       <c r="K11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L11" s="16"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="N11" s="17"/>
       <c r="O11" s="24"/>
       <c r="P11" s="25"/>
@@ -1962,7 +1473,7 @@
       <c r="S11" s="31"/>
       <c r="T11" s="30"/>
     </row>
-    <row r="12" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="12" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A12" s="14">
         <v>11</v>
       </c>
@@ -1994,8 +1505,12 @@
       <c r="K12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="N12" s="17"/>
       <c r="O12" s="24"/>
       <c r="P12" s="21"/>
@@ -2004,7 +1519,7 @@
       <c r="S12" s="29"/>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
+    <row r="13" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -2036,8 +1551,12 @@
       <c r="K13" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="24"/>
+      <c r="L13" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="N13" s="17"/>
       <c r="O13" s="24"/>
       <c r="P13" s="21"/>
@@ -2046,7 +1565,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" s="9" customFormat="1" ht="34" customHeight="1" spans="1:20">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="33.950000000000003" hidden="1" customHeight="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -2078,8 +1597,12 @@
       <c r="K14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="24"/>
+      <c r="L14" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="N14" s="17"/>
       <c r="O14" s="24"/>
       <c r="P14" s="21"/>
@@ -2088,7 +1611,7 @@
       <c r="S14" s="29"/>
       <c r="T14" s="30"/>
     </row>
-    <row r="15" s="9" customFormat="1" ht="34" customHeight="1" spans="1:20">
+    <row r="15" spans="1:20" s="9" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -2120,8 +1643,12 @@
       <c r="K15" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L15" s="16"/>
-      <c r="M15" s="24"/>
+      <c r="L15" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="N15" s="17"/>
       <c r="O15" s="24"/>
       <c r="P15" s="21"/>
@@ -2130,7 +1657,7 @@
       <c r="S15" s="29"/>
       <c r="T15" s="30"/>
     </row>
-    <row r="16" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -2162,8 +1689,12 @@
       <c r="K16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L16" s="16"/>
-      <c r="M16" s="24"/>
+      <c r="L16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>62</v>
+      </c>
       <c r="N16" s="17"/>
       <c r="O16" s="24"/>
       <c r="P16" s="21"/>
@@ -2172,9 +1703,9 @@
       <c r="S16" s="29"/>
       <c r="T16" s="30"/>
     </row>
-    <row r="17" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A17" s="14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="15" t="s">
         <v>47</v>
@@ -2183,7 +1714,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>22</v>
@@ -2199,33 +1730,37 @@
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="24" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="M17" s="24"/>
       <c r="N17" s="17"/>
       <c r="O17" s="24"/>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
       <c r="R17" s="28"/>
-      <c r="S17" s="29"/>
+      <c r="S17" s="29" t="s">
+        <v>67</v>
+      </c>
       <c r="T17" s="30"/>
     </row>
-    <row r="18" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A18" s="14">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>22</v>
@@ -2241,12 +1776,14 @@
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="24" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="16"/>
+      <c r="L18" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="M18" s="24"/>
       <c r="N18" s="17"/>
       <c r="O18" s="24"/>
@@ -2256,15 +1793,15 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
       <c r="A19" s="14">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>27</v>
@@ -2288,25 +1825,29 @@
       <c r="K19" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="M19" s="24"/>
+      <c r="L19" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>68</v>
+      </c>
       <c r="N19" s="17"/>
       <c r="O19" s="24"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
-      <c r="R19" s="28"/>
+      <c r="R19" s="21"/>
       <c r="S19" s="29"/>
       <c r="T19" s="30"/>
     </row>
-    <row r="20" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A20" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>27</v>
@@ -2330,48 +1871,32 @@
       <c r="K20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="16"/>
+      <c r="L20" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="M20" s="24"/>
       <c r="N20" s="17"/>
       <c r="O20" s="24"/>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="29"/>
+      <c r="S20" s="29" t="s">
+        <v>66</v>
+      </c>
       <c r="T20" s="30"/>
     </row>
-    <row r="21" s="9" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="17">
-        <v>42451</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="17">
-        <v>42451</v>
-      </c>
+    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A21" s="14"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
       <c r="I21" s="16"/>
-      <c r="J21" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="J21" s="24"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="24"/>
       <c r="N21" s="17"/>
@@ -2382,7 +1907,7 @@
       <c r="S21" s="29"/>
       <c r="T21" s="30"/>
     </row>
-    <row r="22" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -2404,7 +1929,7 @@
       <c r="S22" s="29"/>
       <c r="T22" s="30"/>
     </row>
-    <row r="23" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -2426,7 +1951,7 @@
       <c r="S23" s="29"/>
       <c r="T23" s="30"/>
     </row>
-    <row r="24" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -2448,7 +1973,7 @@
       <c r="S24" s="29"/>
       <c r="T24" s="30"/>
     </row>
-    <row r="25" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -2470,7 +1995,7 @@
       <c r="S25" s="29"/>
       <c r="T25" s="30"/>
     </row>
-    <row r="26" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -2492,7 +2017,7 @@
       <c r="S26" s="29"/>
       <c r="T26" s="30"/>
     </row>
-    <row r="27" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -2514,7 +2039,7 @@
       <c r="S27" s="29"/>
       <c r="T27" s="30"/>
     </row>
-    <row r="28" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -2536,7 +2061,7 @@
       <c r="S28" s="29"/>
       <c r="T28" s="30"/>
     </row>
-    <row r="29" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -2558,7 +2083,7 @@
       <c r="S29" s="29"/>
       <c r="T29" s="30"/>
     </row>
-    <row r="30" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -2580,7 +2105,7 @@
       <c r="S30" s="29"/>
       <c r="T30" s="30"/>
     </row>
-    <row r="31" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -2602,7 +2127,7 @@
       <c r="S31" s="29"/>
       <c r="T31" s="30"/>
     </row>
-    <row r="32" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -2624,7 +2149,7 @@
       <c r="S32" s="29"/>
       <c r="T32" s="30"/>
     </row>
-    <row r="33" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -2646,7 +2171,7 @@
       <c r="S33" s="29"/>
       <c r="T33" s="30"/>
     </row>
-    <row r="34" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -2668,29 +2193,29 @@
       <c r="S34" s="29"/>
       <c r="T34" s="30"/>
     </row>
-    <row r="35" s="9" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="16"/>
+    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="17"/>
-      <c r="O35" s="24"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="20"/>
+      <c r="O35" s="19"/>
       <c r="P35" s="21"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
-      <c r="S35" s="29"/>
+      <c r="S35" s="19"/>
       <c r="T35" s="30"/>
     </row>
-    <row r="36" s="9" customFormat="1" ht="16.5" spans="1:20">
+    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="18"/>
@@ -2712,29 +2237,28 @@
       <c r="S36" s="19"/>
       <c r="T36" s="30"/>
     </row>
-    <row r="37" s="9" customFormat="1" ht="16.5" spans="1:20">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="18"/>
+    <row r="37" spans="1:20" ht="16.5">
+      <c r="A37" s="21"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="16"/>
       <c r="E37" s="16"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="19"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22"/>
       <c r="P37" s="21"/>
       <c r="Q37" s="21"/>
       <c r="R37" s="21"/>
-      <c r="S37" s="19"/>
-      <c r="T37" s="30"/>
-    </row>
-    <row r="38" ht="16.5" spans="1:19">
+      <c r="S37" s="22"/>
+    </row>
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -2755,7 +2279,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" ht="16.5" spans="1:19">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -2776,7 +2300,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" ht="16.5" spans="1:19">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -2797,7 +2321,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" ht="16.5" spans="1:19">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -2818,7 +2342,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" ht="16.5" spans="1:19">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2839,7 +2363,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" ht="16.5" spans="1:19">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2860,7 +2384,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" ht="16.5" spans="1:19">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2881,7 +2405,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" ht="16.5" spans="1:19">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2902,7 +2426,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" ht="16.5" spans="1:19">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2923,7 +2447,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" ht="16.5" spans="1:19">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2944,7 +2468,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" ht="16.5" spans="1:19">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2965,7 +2489,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" ht="16.5" spans="1:19">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -2986,7 +2510,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" ht="16.5" spans="1:19">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -3007,7 +2531,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" ht="16.5" spans="1:19">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -3028,7 +2552,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" ht="16.5" spans="1:19">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -3049,7 +2573,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" ht="16.5" spans="1:19">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -3070,7 +2594,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" ht="16.5" spans="1:19">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -3091,7 +2615,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" ht="16.5" spans="1:19">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -3112,7 +2636,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" ht="16.5" spans="1:19">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -3133,7 +2657,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" ht="16.5" spans="1:19">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -3154,7 +2678,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" ht="16.5" spans="1:19">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -3175,7 +2699,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" ht="16.5" spans="1:19">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -3196,7 +2720,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" ht="16.5" spans="1:19">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -3217,7 +2741,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" ht="16.5" spans="1:19">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -3238,7 +2762,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" ht="16.5" spans="1:19">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -3259,7 +2783,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" ht="16.5" spans="1:19">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -3280,7 +2804,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" ht="16.5" spans="1:19">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -3301,7 +2825,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" ht="16.5" spans="1:19">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -3322,7 +2846,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" ht="16.5" spans="1:19">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -3343,7 +2867,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" ht="16.5" spans="1:19">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -3364,7 +2888,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" ht="16.5" spans="1:19">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -3385,7 +2909,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" ht="16.5" spans="1:19">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -3406,7 +2930,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" ht="16.5" spans="1:19">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -3427,7 +2951,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" ht="16.5" spans="1:19">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -3448,7 +2972,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" ht="16.5" spans="1:19">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -3469,7 +2993,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" ht="16.5" spans="1:19">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -3490,7 +3014,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" ht="16.5" spans="1:19">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -3511,7 +3035,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" ht="16.5" spans="1:19">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -3532,7 +3056,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" ht="16.5" spans="1:19">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -3553,7 +3077,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" ht="16.5" spans="1:19">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -3574,7 +3098,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" ht="16.5" spans="1:19">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -3595,7 +3119,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" ht="16.5" spans="1:19">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -3616,7 +3140,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" ht="16.5" spans="1:19">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -3637,7 +3161,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" ht="16.5" spans="1:19">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -3658,7 +3182,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" ht="16.5" spans="1:19">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -3679,7 +3203,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" ht="16.5" spans="1:19">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3700,7 +3224,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" ht="16.5" spans="1:19">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3721,7 +3245,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" ht="16.5" spans="1:19">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3742,7 +3266,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" ht="16.5" spans="1:19">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3763,7 +3287,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" ht="16.5" spans="1:19">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3784,7 +3308,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" ht="16.5" spans="1:19">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3805,7 +3329,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" ht="16.5" spans="1:19">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3826,7 +3350,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" ht="16.5" spans="1:19">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3847,7 +3371,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" ht="16.5" spans="1:19">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3868,12 +3392,12 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" ht="16.5" spans="1:19">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
       <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
+      <c r="E92" s="21"/>
       <c r="F92" s="23"/>
       <c r="G92" s="21"/>
       <c r="H92" s="23"/>
@@ -3889,7 +3413,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" ht="16.5" spans="1:19">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3910,7 +3434,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" ht="16.5" spans="1:19">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3931,7 +3455,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" ht="16.5" spans="1:19">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3952,7 +3476,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" ht="16.5" spans="1:19">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3973,7 +3497,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" ht="16.5" spans="1:19">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3994,11 +3518,11 @@
       <c r="R97" s="21"/>
       <c r="S97" s="22"/>
     </row>
-    <row r="98" ht="16.5" spans="1:19">
+    <row r="98" spans="1:19">
       <c r="A98" s="21"/>
       <c r="B98" s="22"/>
       <c r="C98" s="21"/>
-      <c r="D98" s="16"/>
+      <c r="D98" s="21"/>
       <c r="E98" s="21"/>
       <c r="F98" s="23"/>
       <c r="G98" s="21"/>
@@ -5020,7 +4544,6 @@
       <c r="O146" s="22"/>
       <c r="P146" s="21"/>
       <c r="Q146" s="21"/>
-      <c r="R146" s="21"/>
       <c r="S146" s="22"/>
     </row>
     <row r="147" spans="1:19">
@@ -5259,8 +4782,6 @@
       <c r="M158" s="21"/>
       <c r="N158" s="23"/>
       <c r="O158" s="22"/>
-      <c r="P158" s="21"/>
-      <c r="Q158" s="21"/>
       <c r="S158" s="22"/>
     </row>
     <row r="159" spans="1:19">
@@ -5875,41 +5396,29 @@
       <c r="O192" s="22"/>
       <c r="S192" s="22"/>
     </row>
-    <row r="193" spans="1:19">
-      <c r="A193" s="21"/>
-      <c r="B193" s="22"/>
-      <c r="C193" s="21"/>
-      <c r="D193" s="21"/>
-      <c r="E193" s="21"/>
-      <c r="F193" s="23"/>
-      <c r="G193" s="21"/>
-      <c r="H193" s="23"/>
-      <c r="I193" s="27"/>
-      <c r="J193" s="21"/>
-      <c r="K193" s="21"/>
-      <c r="L193" s="21"/>
-      <c r="M193" s="21"/>
-      <c r="N193" s="23"/>
-      <c r="O193" s="22"/>
-      <c r="S193" s="22"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:S20">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="周蓉"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5922,31 +5431,31 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -6129,12 +5638,12 @@
       <c r="H19" s="6"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_EQ组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_EQ组.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -232,6 +232,18 @@
   </si>
   <si>
     <t>通过</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>【租客PC】集中式公寓都下线 显示房源已失效</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>周云</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>彭晓成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -414,7 +426,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -510,6 +522,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -923,14 +938,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1015,7 +1029,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="2" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1061,7 +1075,7 @@
       <c r="S2" s="29"/>
       <c r="T2" s="30"/>
     </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="3" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A3" s="14">
         <v>2</v>
       </c>
@@ -1153,7 +1167,7 @@
       <c r="S4" s="29"/>
       <c r="T4" s="30"/>
     </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="5" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A5" s="14">
         <v>4</v>
       </c>
@@ -1234,7 +1248,9 @@
       <c r="L6" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="M6" s="24"/>
+      <c r="M6" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="N6" s="17"/>
       <c r="O6" s="24"/>
       <c r="P6" s="25"/>
@@ -1243,7 +1259,7 @@
       <c r="S6" s="29"/>
       <c r="T6" s="30"/>
     </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="7" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A7" s="14">
         <v>6</v>
       </c>
@@ -1289,7 +1305,7 @@
       <c r="S7" s="29"/>
       <c r="T7" s="30"/>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="8" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A8" s="14">
         <v>7</v>
       </c>
@@ -1335,7 +1351,7 @@
       <c r="S8" s="29"/>
       <c r="T8" s="30"/>
     </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="9" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A9" s="14">
         <v>8</v>
       </c>
@@ -1381,7 +1397,7 @@
       <c r="S9" s="29"/>
       <c r="T9" s="30"/>
     </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="21.75" hidden="1" customHeight="1">
+    <row r="10" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
       <c r="A10" s="14">
         <v>9</v>
       </c>
@@ -1565,7 +1581,7 @@
       <c r="S13" s="29"/>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="33.950000000000003" hidden="1" customHeight="1">
+    <row r="14" spans="1:20" s="9" customFormat="1" ht="33.950000000000003" customHeight="1">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -1738,7 +1754,9 @@
       <c r="L17" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M17" s="24"/>
+      <c r="M17" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="N17" s="17"/>
       <c r="O17" s="24"/>
       <c r="P17" s="21"/>
@@ -1784,7 +1802,9 @@
       <c r="L18" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="24"/>
+      <c r="M18" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="N18" s="17"/>
       <c r="O18" s="24"/>
       <c r="P18" s="21"/>
@@ -1793,7 +1813,7 @@
       <c r="S18" s="29"/>
       <c r="T18" s="30"/>
     </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5" hidden="1">
+    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
       <c r="A19" s="14">
         <v>19</v>
       </c>
@@ -1865,8 +1885,8 @@
         <v>42451</v>
       </c>
       <c r="I20" s="16"/>
-      <c r="J20" s="24" t="s">
-        <v>30</v>
+      <c r="J20" s="32" t="s">
+        <v>70</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>24</v>
@@ -1874,7 +1894,9 @@
       <c r="L20" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M20" s="24"/>
+      <c r="M20" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="N20" s="17"/>
       <c r="O20" s="24"/>
       <c r="P20" s="21"/>
@@ -1886,18 +1908,40 @@
       <c r="T20" s="30"/>
     </row>
     <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
+      <c r="A21" s="14">
+        <v>21</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="17">
+        <v>42451</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="17">
+        <v>42451</v>
+      </c>
       <c r="I21" s="16"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
+      <c r="J21" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="M21" s="24"/>
       <c r="N21" s="17"/>
       <c r="O21" s="24"/>
@@ -5398,11 +5442,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S20">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="周蓉"/>
-      </filters>
-    </filterColumn>
+    <filterColumn colId="11"/>
   </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_EQ组.xlsx
+++ b/VersionRecords/Version3.0.3/版本Bug和特性计划及评审表v3.0.3_EQ组.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="28080" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.0.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.0.1 新特性|Fix Bug'!$A$1:$S$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本3.0.1 新特性|Fix Bug'!$A$1:$S$21</definedName>
   </definedNames>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69">
   <si>
     <t>No</t>
   </si>
@@ -95,6 +95,15 @@
     <t>EQ组</t>
   </si>
   <si>
+    <t>吴永余</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
     <t>【租客App】售后业务优化，退房的订单排最后</t>
   </si>
   <si>
@@ -113,6 +122,9 @@
     <t>周云</t>
   </si>
   <si>
+    <t>周蓉</t>
+  </si>
+  <si>
     <t>【租客App】蘑菇宝签约新增房东租客合照</t>
   </si>
   <si>
@@ -170,9 +182,27 @@
     <t>纪林强</t>
   </si>
   <si>
+    <t>添加社区文章马上显示就出现了一次 待开发查找原因（偶然性）</t>
+  </si>
+  <si>
+    <t>【租客App】提现消息内容修改</t>
+  </si>
+  <si>
     <t>【租客App】我的账单模块：无效的签约单对应的账单不显示</t>
   </si>
   <si>
+    <t>【租客App】查询支付状态接口做容错处理，防止支付账务错乱</t>
+  </si>
+  <si>
+    <t>账单计划黑屏待解决</t>
+  </si>
+  <si>
+    <t>【租客PC】集中式公寓都下线 显示房源已失效</t>
+  </si>
+  <si>
+    <t>彭晓成</t>
+  </si>
+  <si>
     <t>对应backlog序号</t>
   </si>
   <si>
@@ -195,63 +225,19 @@
   </si>
   <si>
     <t>修正负责人</t>
-  </si>
-  <si>
-    <t>周蓉</t>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【租客App】查询支付状态接口做容错处理，防止支付账务错乱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【租客App】提现消息内容修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>账单计划黑屏待解决</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加社区文章马上显示就出现了一次 待开发查找原因（偶然性）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>【租客PC】集中式公寓都下线 显示房源已失效</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周云</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>彭晓成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -277,8 +263,136 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -290,17 +404,35 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -315,12 +447,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -408,23 +726,265 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -505,6 +1065,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -523,89 +1086,64 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="55">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="5"/>
-    <cellStyle name="常规 3" xfId="6"/>
-    <cellStyle name="常规 3 12" xfId="4"/>
-    <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="常规 9" xfId="3"/>
-    <cellStyle name="甘特图" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="常规 6" xfId="13"/>
+    <cellStyle name="注释" xfId="14" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
+    <cellStyle name="标题" xfId="18" builtinId="15"/>
+    <cellStyle name="甘特图" xfId="19"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="21" builtinId="16"/>
+    <cellStyle name="常规 9" xfId="22"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="常规 3 12" xfId="48"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="49" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="50" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="51" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="52" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="53"/>
+    <cellStyle name="常规 3" xfId="54"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -617,7 +1155,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -937,14 +1475,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:T192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -970,7 +1510,7 @@
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="27">
+    <row r="1" s="8" customFormat="1" ht="27.75" spans="1:19">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1029,7 +1569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+    <row r="2" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -1062,31 +1602,35 @@
         <v>24</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M2" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="17"/>
-      <c r="O2" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N2" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P2" s="25"/>
       <c r="Q2" s="25"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="30"/>
-    </row>
-    <row r="3" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R2" s="29"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="31"/>
+    </row>
+    <row r="3" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A3" s="14">
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E3" s="16" t="s">
         <v>22</v>
@@ -1102,37 +1646,41 @@
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M3" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N3" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="30"/>
-    </row>
-    <row r="4" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R3" s="29"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="31"/>
+    </row>
+    <row r="4" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A4" s="14">
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>22</v>
@@ -1148,37 +1696,41 @@
       </c>
       <c r="I4" s="16"/>
       <c r="J4" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N4" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
-      <c r="R4" s="28"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="30"/>
-    </row>
-    <row r="5" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
+    </row>
+    <row r="5" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A5" s="14">
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>22</v>
@@ -1194,37 +1746,41 @@
       </c>
       <c r="I5" s="16"/>
       <c r="J5" s="24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N5" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="30"/>
-    </row>
-    <row r="6" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R5" s="29"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A6" s="14">
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>22</v>
@@ -1240,31 +1796,35 @@
       </c>
       <c r="I6" s="16"/>
       <c r="J6" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N6" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30"/>
-    </row>
-    <row r="7" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R6" s="29"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A7" s="14">
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>20</v>
@@ -1286,34 +1846,38 @@
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M7" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N7" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P7" s="25"/>
       <c r="Q7" s="25"/>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-    </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="31"/>
+    </row>
+    <row r="8" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A8" s="14">
         <v>7</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D8" s="16" t="s">
         <v>21</v>
@@ -1332,31 +1896,35 @@
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K8" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M8" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N8" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O8" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P8" s="25"/>
       <c r="Q8" s="25"/>
-      <c r="R8" s="28"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30"/>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R8" s="29"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A9" s="14">
         <v>8</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>20</v>
@@ -1378,34 +1946,38 @@
       </c>
       <c r="I9" s="16"/>
       <c r="J9" s="24" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K9" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M9" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N9" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P9" s="25"/>
       <c r="Q9" s="25"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R9" s="29"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A10" s="14">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D10" s="16" t="s">
         <v>21</v>
@@ -1424,31 +1996,35 @@
       </c>
       <c r="I10" s="16"/>
       <c r="J10" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K10" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M10" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N10" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O10" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
-      <c r="R10" s="28"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-    </row>
-    <row r="11" spans="1:20" s="9" customFormat="1" ht="33">
+      <c r="R10" s="29"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" s="9" customFormat="1" ht="33" spans="1:20">
       <c r="A11" s="14">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>20</v>
@@ -1470,31 +2046,35 @@
       </c>
       <c r="I11" s="16"/>
       <c r="J11" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K11" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N11" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P11" s="25"/>
       <c r="Q11" s="25"/>
-      <c r="R11" s="28"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="30"/>
-    </row>
-    <row r="12" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R11" s="29"/>
+      <c r="S11" s="32"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A12" s="14">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>20</v>
@@ -1516,31 +2096,35 @@
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="24" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="K12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M12" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N12" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O12" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P12" s="21"/>
       <c r="Q12" s="21"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="30"/>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1" ht="21.75" customHeight="1">
+      <c r="R12" s="29"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" s="9" customFormat="1" ht="21.75" customHeight="1" spans="1:20">
       <c r="A13" s="14">
         <v>12</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>20</v>
@@ -1562,31 +2146,35 @@
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N13" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P13" s="21"/>
       <c r="Q13" s="21"/>
-      <c r="R13" s="28"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-    </row>
-    <row r="14" spans="1:20" s="9" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="R13" s="29"/>
+      <c r="S13" s="30"/>
+      <c r="T13" s="31"/>
+    </row>
+    <row r="14" s="9" customFormat="1" ht="33.95" customHeight="1" spans="1:20">
       <c r="A14" s="14">
         <v>13</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>20</v>
@@ -1608,31 +2196,35 @@
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N14" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O14" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P14" s="21"/>
       <c r="Q14" s="21"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
-    </row>
-    <row r="15" spans="1:20" s="9" customFormat="1" ht="33.950000000000003" customHeight="1">
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
+      <c r="T14" s="31"/>
+    </row>
+    <row r="15" s="9" customFormat="1" ht="33.95" customHeight="1" spans="1:20">
       <c r="A15" s="14">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>20</v>
@@ -1654,31 +2246,35 @@
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N15" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="21"/>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
-    </row>
-    <row r="16" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="31"/>
+    </row>
+    <row r="16" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A16" s="14">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>20</v>
@@ -1700,37 +2296,41 @@
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L16" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N16" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O16" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="21"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="29"/>
-      <c r="T16" s="30"/>
-    </row>
-    <row r="17" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="R16" s="29"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="31"/>
+    </row>
+    <row r="17" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A17" s="14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>22</v>
@@ -1746,39 +2346,43 @@
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="24" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L17" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M17" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N17" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="21"/>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="T17" s="30"/>
-    </row>
-    <row r="18" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="R17" s="29"/>
+      <c r="S17" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="T17" s="31"/>
+    </row>
+    <row r="18" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A18" s="14">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>22</v>
@@ -1794,37 +2398,41 @@
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L18" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N18" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O18" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="21"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="30"/>
-    </row>
-    <row r="19" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="31"/>
+    </row>
+    <row r="19" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A19" s="14">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>22</v>
@@ -1840,37 +2448,41 @@
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="M19" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N19" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="21"/>
       <c r="R19" s="21"/>
-      <c r="S19" s="29"/>
-      <c r="T19" s="30"/>
-    </row>
-    <row r="20" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S19" s="30"/>
+      <c r="T19" s="31"/>
+    </row>
+    <row r="20" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A20" s="14">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E20" s="16" t="s">
         <v>22</v>
@@ -1885,37 +2497,41 @@
         <v>42451</v>
       </c>
       <c r="I20" s="16"/>
-      <c r="J20" s="32" t="s">
-        <v>70</v>
+      <c r="J20" s="26" t="s">
+        <v>33</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L20" s="16" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="M20" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="N20" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O20" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P20" s="21"/>
       <c r="Q20" s="21"/>
       <c r="R20" s="21"/>
-      <c r="S20" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="T20" s="30"/>
-    </row>
-    <row r="21" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A21" s="14">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>21</v>
@@ -1934,24 +2550,30 @@
       </c>
       <c r="I21" s="16"/>
       <c r="J21" s="24" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>24</v>
       </c>
       <c r="L21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="M21" s="24"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="17">
+        <v>42452</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>27</v>
+      </c>
       <c r="P21" s="21"/>
       <c r="Q21" s="21"/>
       <c r="R21" s="21"/>
-      <c r="S21" s="29"/>
-      <c r="T21" s="30"/>
-    </row>
-    <row r="22" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S21" s="30"/>
+      <c r="T21" s="31"/>
+    </row>
+    <row r="22" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
@@ -1970,10 +2592,10 @@
       <c r="P22" s="21"/>
       <c r="Q22" s="21"/>
       <c r="R22" s="21"/>
-      <c r="S22" s="29"/>
-      <c r="T22" s="30"/>
-    </row>
-    <row r="23" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S22" s="30"/>
+      <c r="T22" s="31"/>
+    </row>
+    <row r="23" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
@@ -1992,10 +2614,10 @@
       <c r="P23" s="21"/>
       <c r="Q23" s="21"/>
       <c r="R23" s="21"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="30"/>
-    </row>
-    <row r="24" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S23" s="30"/>
+      <c r="T23" s="31"/>
+    </row>
+    <row r="24" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
@@ -2014,10 +2636,10 @@
       <c r="P24" s="21"/>
       <c r="Q24" s="21"/>
       <c r="R24" s="21"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="30"/>
-    </row>
-    <row r="25" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S24" s="30"/>
+      <c r="T24" s="31"/>
+    </row>
+    <row r="25" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A25" s="14"/>
       <c r="B25" s="15"/>
       <c r="C25" s="16"/>
@@ -2036,10 +2658,10 @@
       <c r="P25" s="21"/>
       <c r="Q25" s="21"/>
       <c r="R25" s="21"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="30"/>
-    </row>
-    <row r="26" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S25" s="30"/>
+      <c r="T25" s="31"/>
+    </row>
+    <row r="26" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A26" s="14"/>
       <c r="B26" s="15"/>
       <c r="C26" s="16"/>
@@ -2058,10 +2680,10 @@
       <c r="P26" s="21"/>
       <c r="Q26" s="21"/>
       <c r="R26" s="21"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="30"/>
-    </row>
-    <row r="27" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
+    </row>
+    <row r="27" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -2080,10 +2702,10 @@
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
       <c r="R27" s="21"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
-    </row>
-    <row r="28" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S27" s="30"/>
+      <c r="T27" s="31"/>
+    </row>
+    <row r="28" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A28" s="14"/>
       <c r="B28" s="15"/>
       <c r="C28" s="16"/>
@@ -2102,10 +2724,10 @@
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="30"/>
-    </row>
-    <row r="29" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S28" s="30"/>
+      <c r="T28" s="31"/>
+    </row>
+    <row r="29" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A29" s="14"/>
       <c r="B29" s="15"/>
       <c r="C29" s="16"/>
@@ -2124,10 +2746,10 @@
       <c r="P29" s="21"/>
       <c r="Q29" s="21"/>
       <c r="R29" s="21"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="30"/>
-    </row>
-    <row r="30" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S29" s="30"/>
+      <c r="T29" s="31"/>
+    </row>
+    <row r="30" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A30" s="14"/>
       <c r="B30" s="15"/>
       <c r="C30" s="16"/>
@@ -2146,10 +2768,10 @@
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
       <c r="R30" s="21"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="30"/>
-    </row>
-    <row r="31" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S30" s="30"/>
+      <c r="T30" s="31"/>
+    </row>
+    <row r="31" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A31" s="14"/>
       <c r="B31" s="15"/>
       <c r="C31" s="16"/>
@@ -2168,10 +2790,10 @@
       <c r="P31" s="21"/>
       <c r="Q31" s="21"/>
       <c r="R31" s="21"/>
-      <c r="S31" s="29"/>
-      <c r="T31" s="30"/>
-    </row>
-    <row r="32" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S31" s="30"/>
+      <c r="T31" s="31"/>
+    </row>
+    <row r="32" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A32" s="14"/>
       <c r="B32" s="15"/>
       <c r="C32" s="16"/>
@@ -2190,10 +2812,10 @@
       <c r="P32" s="21"/>
       <c r="Q32" s="21"/>
       <c r="R32" s="21"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="30"/>
-    </row>
-    <row r="33" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S32" s="30"/>
+      <c r="T32" s="31"/>
+    </row>
+    <row r="33" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A33" s="14"/>
       <c r="B33" s="15"/>
       <c r="C33" s="16"/>
@@ -2212,10 +2834,10 @@
       <c r="P33" s="21"/>
       <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
-      <c r="S33" s="29"/>
-      <c r="T33" s="30"/>
-    </row>
-    <row r="34" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S33" s="30"/>
+      <c r="T33" s="31"/>
+    </row>
+    <row r="34" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A34" s="14"/>
       <c r="B34" s="15"/>
       <c r="C34" s="16"/>
@@ -2234,10 +2856,10 @@
       <c r="P34" s="21"/>
       <c r="Q34" s="21"/>
       <c r="R34" s="21"/>
-      <c r="S34" s="29"/>
-      <c r="T34" s="30"/>
-    </row>
-    <row r="35" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="S34" s="30"/>
+      <c r="T34" s="31"/>
+    </row>
+    <row r="35" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="18"/>
@@ -2246,7 +2868,7 @@
       <c r="F35" s="20"/>
       <c r="G35" s="18"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="26"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="18"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
@@ -2257,9 +2879,9 @@
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
       <c r="S35" s="19"/>
-      <c r="T35" s="30"/>
-    </row>
-    <row r="36" spans="1:20" s="9" customFormat="1" ht="16.5">
+      <c r="T35" s="31"/>
+    </row>
+    <row r="36" s="9" customFormat="1" ht="16.5" spans="1:20">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="18"/>
@@ -2268,7 +2890,7 @@
       <c r="F36" s="20"/>
       <c r="G36" s="18"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="26"/>
+      <c r="I36" s="27"/>
       <c r="J36" s="18"/>
       <c r="K36" s="18"/>
       <c r="L36" s="18"/>
@@ -2279,9 +2901,9 @@
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
       <c r="S36" s="19"/>
-      <c r="T36" s="30"/>
-    </row>
-    <row r="37" spans="1:20" ht="16.5">
+      <c r="T36" s="31"/>
+    </row>
+    <row r="37" ht="16.5" spans="1:19">
       <c r="A37" s="21"/>
       <c r="B37" s="22"/>
       <c r="C37" s="21"/>
@@ -2290,7 +2912,7 @@
       <c r="F37" s="23"/>
       <c r="G37" s="21"/>
       <c r="H37" s="23"/>
-      <c r="I37" s="27"/>
+      <c r="I37" s="28"/>
       <c r="J37" s="21"/>
       <c r="K37" s="21"/>
       <c r="L37" s="21"/>
@@ -2302,7 +2924,7 @@
       <c r="R37" s="21"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5">
+    <row r="38" ht="16.5" spans="1:19">
       <c r="A38" s="21"/>
       <c r="B38" s="22"/>
       <c r="C38" s="21"/>
@@ -2311,7 +2933,7 @@
       <c r="F38" s="23"/>
       <c r="G38" s="21"/>
       <c r="H38" s="23"/>
-      <c r="I38" s="27"/>
+      <c r="I38" s="28"/>
       <c r="J38" s="21"/>
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
@@ -2323,7 +2945,7 @@
       <c r="R38" s="21"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5">
+    <row r="39" ht="16.5" spans="1:19">
       <c r="A39" s="21"/>
       <c r="B39" s="22"/>
       <c r="C39" s="21"/>
@@ -2332,7 +2954,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="21"/>
       <c r="H39" s="23"/>
-      <c r="I39" s="27"/>
+      <c r="I39" s="28"/>
       <c r="J39" s="21"/>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
@@ -2344,7 +2966,7 @@
       <c r="R39" s="21"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5">
+    <row r="40" ht="16.5" spans="1:19">
       <c r="A40" s="21"/>
       <c r="B40" s="22"/>
       <c r="C40" s="21"/>
@@ -2353,7 +2975,7 @@
       <c r="F40" s="23"/>
       <c r="G40" s="21"/>
       <c r="H40" s="23"/>
-      <c r="I40" s="27"/>
+      <c r="I40" s="28"/>
       <c r="J40" s="21"/>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
@@ -2365,7 +2987,7 @@
       <c r="R40" s="21"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5">
+    <row r="41" ht="16.5" spans="1:19">
       <c r="A41" s="21"/>
       <c r="B41" s="22"/>
       <c r="C41" s="21"/>
@@ -2374,7 +2996,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="21"/>
       <c r="H41" s="23"/>
-      <c r="I41" s="27"/>
+      <c r="I41" s="28"/>
       <c r="J41" s="21"/>
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
@@ -2386,7 +3008,7 @@
       <c r="R41" s="21"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5">
+    <row r="42" ht="16.5" spans="1:19">
       <c r="A42" s="21"/>
       <c r="B42" s="22"/>
       <c r="C42" s="21"/>
@@ -2395,7 +3017,7 @@
       <c r="F42" s="23"/>
       <c r="G42" s="21"/>
       <c r="H42" s="23"/>
-      <c r="I42" s="27"/>
+      <c r="I42" s="28"/>
       <c r="J42" s="21"/>
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
@@ -2407,7 +3029,7 @@
       <c r="R42" s="21"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
+    <row r="43" ht="16.5" spans="1:19">
       <c r="A43" s="21"/>
       <c r="B43" s="22"/>
       <c r="C43" s="21"/>
@@ -2416,7 +3038,7 @@
       <c r="F43" s="23"/>
       <c r="G43" s="21"/>
       <c r="H43" s="23"/>
-      <c r="I43" s="27"/>
+      <c r="I43" s="28"/>
       <c r="J43" s="21"/>
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
@@ -2428,7 +3050,7 @@
       <c r="R43" s="21"/>
       <c r="S43" s="22"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5">
+    <row r="44" ht="16.5" spans="1:19">
       <c r="A44" s="21"/>
       <c r="B44" s="22"/>
       <c r="C44" s="21"/>
@@ -2437,7 +3059,7 @@
       <c r="F44" s="23"/>
       <c r="G44" s="21"/>
       <c r="H44" s="23"/>
-      <c r="I44" s="27"/>
+      <c r="I44" s="28"/>
       <c r="J44" s="21"/>
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
@@ -2449,7 +3071,7 @@
       <c r="R44" s="21"/>
       <c r="S44" s="22"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5">
+    <row r="45" ht="16.5" spans="1:19">
       <c r="A45" s="21"/>
       <c r="B45" s="22"/>
       <c r="C45" s="21"/>
@@ -2458,7 +3080,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="21"/>
       <c r="H45" s="23"/>
-      <c r="I45" s="27"/>
+      <c r="I45" s="28"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
@@ -2470,7 +3092,7 @@
       <c r="R45" s="21"/>
       <c r="S45" s="22"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" ht="16.5" spans="1:19">
       <c r="A46" s="21"/>
       <c r="B46" s="22"/>
       <c r="C46" s="21"/>
@@ -2479,7 +3101,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="21"/>
       <c r="H46" s="23"/>
-      <c r="I46" s="27"/>
+      <c r="I46" s="28"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
@@ -2491,7 +3113,7 @@
       <c r="R46" s="21"/>
       <c r="S46" s="22"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" ht="16.5" spans="1:19">
       <c r="A47" s="21"/>
       <c r="B47" s="22"/>
       <c r="C47" s="21"/>
@@ -2500,7 +3122,7 @@
       <c r="F47" s="23"/>
       <c r="G47" s="21"/>
       <c r="H47" s="23"/>
-      <c r="I47" s="27"/>
+      <c r="I47" s="28"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
@@ -2512,7 +3134,7 @@
       <c r="R47" s="21"/>
       <c r="S47" s="22"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" ht="16.5" spans="1:19">
       <c r="A48" s="21"/>
       <c r="B48" s="22"/>
       <c r="C48" s="21"/>
@@ -2521,7 +3143,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="21"/>
       <c r="H48" s="23"/>
-      <c r="I48" s="27"/>
+      <c r="I48" s="28"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
@@ -2533,7 +3155,7 @@
       <c r="R48" s="21"/>
       <c r="S48" s="22"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" ht="16.5" spans="1:19">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="21"/>
@@ -2542,7 +3164,7 @@
       <c r="F49" s="23"/>
       <c r="G49" s="21"/>
       <c r="H49" s="23"/>
-      <c r="I49" s="27"/>
+      <c r="I49" s="28"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
@@ -2554,7 +3176,7 @@
       <c r="R49" s="21"/>
       <c r="S49" s="22"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" ht="16.5" spans="1:19">
       <c r="A50" s="21"/>
       <c r="B50" s="22"/>
       <c r="C50" s="21"/>
@@ -2563,7 +3185,7 @@
       <c r="F50" s="23"/>
       <c r="G50" s="21"/>
       <c r="H50" s="23"/>
-      <c r="I50" s="27"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
@@ -2575,7 +3197,7 @@
       <c r="R50" s="21"/>
       <c r="S50" s="22"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" ht="16.5" spans="1:19">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="21"/>
@@ -2584,7 +3206,7 @@
       <c r="F51" s="23"/>
       <c r="G51" s="21"/>
       <c r="H51" s="23"/>
-      <c r="I51" s="27"/>
+      <c r="I51" s="28"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
@@ -2596,7 +3218,7 @@
       <c r="R51" s="21"/>
       <c r="S51" s="22"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" ht="16.5" spans="1:19">
       <c r="A52" s="21"/>
       <c r="B52" s="22"/>
       <c r="C52" s="21"/>
@@ -2605,7 +3227,7 @@
       <c r="F52" s="23"/>
       <c r="G52" s="21"/>
       <c r="H52" s="23"/>
-      <c r="I52" s="27"/>
+      <c r="I52" s="28"/>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
@@ -2617,7 +3239,7 @@
       <c r="R52" s="21"/>
       <c r="S52" s="22"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" ht="16.5" spans="1:19">
       <c r="A53" s="21"/>
       <c r="B53" s="22"/>
       <c r="C53" s="21"/>
@@ -2626,7 +3248,7 @@
       <c r="F53" s="23"/>
       <c r="G53" s="21"/>
       <c r="H53" s="23"/>
-      <c r="I53" s="27"/>
+      <c r="I53" s="28"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
@@ -2638,7 +3260,7 @@
       <c r="R53" s="21"/>
       <c r="S53" s="22"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" ht="16.5" spans="1:19">
       <c r="A54" s="21"/>
       <c r="B54" s="22"/>
       <c r="C54" s="21"/>
@@ -2647,7 +3269,7 @@
       <c r="F54" s="23"/>
       <c r="G54" s="21"/>
       <c r="H54" s="23"/>
-      <c r="I54" s="27"/>
+      <c r="I54" s="28"/>
       <c r="J54" s="21"/>
       <c r="K54" s="21"/>
       <c r="L54" s="21"/>
@@ -2659,7 +3281,7 @@
       <c r="R54" s="21"/>
       <c r="S54" s="22"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" ht="16.5" spans="1:19">
       <c r="A55" s="21"/>
       <c r="B55" s="22"/>
       <c r="C55" s="21"/>
@@ -2668,7 +3290,7 @@
       <c r="F55" s="23"/>
       <c r="G55" s="21"/>
       <c r="H55" s="23"/>
-      <c r="I55" s="27"/>
+      <c r="I55" s="28"/>
       <c r="J55" s="21"/>
       <c r="K55" s="21"/>
       <c r="L55" s="21"/>
@@ -2680,7 +3302,7 @@
       <c r="R55" s="21"/>
       <c r="S55" s="22"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" ht="16.5" spans="1:19">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="21"/>
@@ -2689,7 +3311,7 @@
       <c r="F56" s="23"/>
       <c r="G56" s="21"/>
       <c r="H56" s="23"/>
-      <c r="I56" s="27"/>
+      <c r="I56" s="28"/>
       <c r="J56" s="21"/>
       <c r="K56" s="21"/>
       <c r="L56" s="21"/>
@@ -2701,7 +3323,7 @@
       <c r="R56" s="21"/>
       <c r="S56" s="22"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" ht="16.5" spans="1:19">
       <c r="A57" s="21"/>
       <c r="B57" s="22"/>
       <c r="C57" s="21"/>
@@ -2710,7 +3332,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="21"/>
       <c r="H57" s="23"/>
-      <c r="I57" s="27"/>
+      <c r="I57" s="28"/>
       <c r="J57" s="21"/>
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
@@ -2722,7 +3344,7 @@
       <c r="R57" s="21"/>
       <c r="S57" s="22"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" ht="16.5" spans="1:19">
       <c r="A58" s="21"/>
       <c r="B58" s="22"/>
       <c r="C58" s="21"/>
@@ -2731,7 +3353,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="21"/>
       <c r="H58" s="23"/>
-      <c r="I58" s="27"/>
+      <c r="I58" s="28"/>
       <c r="J58" s="21"/>
       <c r="K58" s="21"/>
       <c r="L58" s="21"/>
@@ -2743,7 +3365,7 @@
       <c r="R58" s="21"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" ht="16.5" spans="1:19">
       <c r="A59" s="21"/>
       <c r="B59" s="22"/>
       <c r="C59" s="21"/>
@@ -2752,7 +3374,7 @@
       <c r="F59" s="23"/>
       <c r="G59" s="21"/>
       <c r="H59" s="23"/>
-      <c r="I59" s="27"/>
+      <c r="I59" s="28"/>
       <c r="J59" s="21"/>
       <c r="K59" s="21"/>
       <c r="L59" s="21"/>
@@ -2764,7 +3386,7 @@
       <c r="R59" s="21"/>
       <c r="S59" s="22"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" ht="16.5" spans="1:19">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="21"/>
@@ -2773,7 +3395,7 @@
       <c r="F60" s="23"/>
       <c r="G60" s="21"/>
       <c r="H60" s="23"/>
-      <c r="I60" s="27"/>
+      <c r="I60" s="28"/>
       <c r="J60" s="21"/>
       <c r="K60" s="21"/>
       <c r="L60" s="21"/>
@@ -2785,7 +3407,7 @@
       <c r="R60" s="21"/>
       <c r="S60" s="22"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" ht="16.5" spans="1:19">
       <c r="A61" s="21"/>
       <c r="B61" s="22"/>
       <c r="C61" s="21"/>
@@ -2794,7 +3416,7 @@
       <c r="F61" s="23"/>
       <c r="G61" s="21"/>
       <c r="H61" s="23"/>
-      <c r="I61" s="27"/>
+      <c r="I61" s="28"/>
       <c r="J61" s="21"/>
       <c r="K61" s="21"/>
       <c r="L61" s="21"/>
@@ -2806,7 +3428,7 @@
       <c r="R61" s="21"/>
       <c r="S61" s="22"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" ht="16.5" spans="1:19">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="21"/>
@@ -2815,7 +3437,7 @@
       <c r="F62" s="23"/>
       <c r="G62" s="21"/>
       <c r="H62" s="23"/>
-      <c r="I62" s="27"/>
+      <c r="I62" s="28"/>
       <c r="J62" s="21"/>
       <c r="K62" s="21"/>
       <c r="L62" s="21"/>
@@ -2827,7 +3449,7 @@
       <c r="R62" s="21"/>
       <c r="S62" s="22"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" ht="16.5" spans="1:19">
       <c r="A63" s="21"/>
       <c r="B63" s="22"/>
       <c r="C63" s="21"/>
@@ -2836,7 +3458,7 @@
       <c r="F63" s="23"/>
       <c r="G63" s="21"/>
       <c r="H63" s="23"/>
-      <c r="I63" s="27"/>
+      <c r="I63" s="28"/>
       <c r="J63" s="21"/>
       <c r="K63" s="21"/>
       <c r="L63" s="21"/>
@@ -2848,7 +3470,7 @@
       <c r="R63" s="21"/>
       <c r="S63" s="22"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" ht="16.5" spans="1:19">
       <c r="A64" s="21"/>
       <c r="B64" s="22"/>
       <c r="C64" s="21"/>
@@ -2857,7 +3479,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="21"/>
       <c r="H64" s="23"/>
-      <c r="I64" s="27"/>
+      <c r="I64" s="28"/>
       <c r="J64" s="21"/>
       <c r="K64" s="21"/>
       <c r="L64" s="21"/>
@@ -2869,7 +3491,7 @@
       <c r="R64" s="21"/>
       <c r="S64" s="22"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" ht="16.5" spans="1:19">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="21"/>
@@ -2878,7 +3500,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="21"/>
       <c r="H65" s="23"/>
-      <c r="I65" s="27"/>
+      <c r="I65" s="28"/>
       <c r="J65" s="21"/>
       <c r="K65" s="21"/>
       <c r="L65" s="21"/>
@@ -2890,7 +3512,7 @@
       <c r="R65" s="21"/>
       <c r="S65" s="22"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" ht="16.5" spans="1:19">
       <c r="A66" s="21"/>
       <c r="B66" s="22"/>
       <c r="C66" s="21"/>
@@ -2899,7 +3521,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="21"/>
       <c r="H66" s="23"/>
-      <c r="I66" s="27"/>
+      <c r="I66" s="28"/>
       <c r="J66" s="21"/>
       <c r="K66" s="21"/>
       <c r="L66" s="21"/>
@@ -2911,7 +3533,7 @@
       <c r="R66" s="21"/>
       <c r="S66" s="22"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" ht="16.5" spans="1:19">
       <c r="A67" s="21"/>
       <c r="B67" s="22"/>
       <c r="C67" s="21"/>
@@ -2920,7 +3542,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="21"/>
       <c r="H67" s="23"/>
-      <c r="I67" s="27"/>
+      <c r="I67" s="28"/>
       <c r="J67" s="21"/>
       <c r="K67" s="21"/>
       <c r="L67" s="21"/>
@@ -2932,7 +3554,7 @@
       <c r="R67" s="21"/>
       <c r="S67" s="22"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" ht="16.5" spans="1:19">
       <c r="A68" s="21"/>
       <c r="B68" s="22"/>
       <c r="C68" s="21"/>
@@ -2941,7 +3563,7 @@
       <c r="F68" s="23"/>
       <c r="G68" s="21"/>
       <c r="H68" s="23"/>
-      <c r="I68" s="27"/>
+      <c r="I68" s="28"/>
       <c r="J68" s="21"/>
       <c r="K68" s="21"/>
       <c r="L68" s="21"/>
@@ -2953,7 +3575,7 @@
       <c r="R68" s="21"/>
       <c r="S68" s="22"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" ht="16.5" spans="1:19">
       <c r="A69" s="21"/>
       <c r="B69" s="22"/>
       <c r="C69" s="21"/>
@@ -2962,7 +3584,7 @@
       <c r="F69" s="23"/>
       <c r="G69" s="21"/>
       <c r="H69" s="23"/>
-      <c r="I69" s="27"/>
+      <c r="I69" s="28"/>
       <c r="J69" s="21"/>
       <c r="K69" s="21"/>
       <c r="L69" s="21"/>
@@ -2974,7 +3596,7 @@
       <c r="R69" s="21"/>
       <c r="S69" s="22"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" ht="16.5" spans="1:19">
       <c r="A70" s="21"/>
       <c r="B70" s="22"/>
       <c r="C70" s="21"/>
@@ -2983,7 +3605,7 @@
       <c r="F70" s="23"/>
       <c r="G70" s="21"/>
       <c r="H70" s="23"/>
-      <c r="I70" s="27"/>
+      <c r="I70" s="28"/>
       <c r="J70" s="21"/>
       <c r="K70" s="21"/>
       <c r="L70" s="21"/>
@@ -2995,7 +3617,7 @@
       <c r="R70" s="21"/>
       <c r="S70" s="22"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" ht="16.5" spans="1:19">
       <c r="A71" s="21"/>
       <c r="B71" s="22"/>
       <c r="C71" s="21"/>
@@ -3004,7 +3626,7 @@
       <c r="F71" s="23"/>
       <c r="G71" s="21"/>
       <c r="H71" s="23"/>
-      <c r="I71" s="27"/>
+      <c r="I71" s="28"/>
       <c r="J71" s="21"/>
       <c r="K71" s="21"/>
       <c r="L71" s="21"/>
@@ -3016,7 +3638,7 @@
       <c r="R71" s="21"/>
       <c r="S71" s="22"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" ht="16.5" spans="1:19">
       <c r="A72" s="21"/>
       <c r="B72" s="22"/>
       <c r="C72" s="21"/>
@@ -3025,7 +3647,7 @@
       <c r="F72" s="23"/>
       <c r="G72" s="21"/>
       <c r="H72" s="23"/>
-      <c r="I72" s="27"/>
+      <c r="I72" s="28"/>
       <c r="J72" s="21"/>
       <c r="K72" s="21"/>
       <c r="L72" s="21"/>
@@ -3037,7 +3659,7 @@
       <c r="R72" s="21"/>
       <c r="S72" s="22"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" ht="16.5" spans="1:19">
       <c r="A73" s="21"/>
       <c r="B73" s="22"/>
       <c r="C73" s="21"/>
@@ -3046,7 +3668,7 @@
       <c r="F73" s="23"/>
       <c r="G73" s="21"/>
       <c r="H73" s="23"/>
-      <c r="I73" s="27"/>
+      <c r="I73" s="28"/>
       <c r="J73" s="21"/>
       <c r="K73" s="21"/>
       <c r="L73" s="21"/>
@@ -3058,7 +3680,7 @@
       <c r="R73" s="21"/>
       <c r="S73" s="22"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" ht="16.5" spans="1:19">
       <c r="A74" s="21"/>
       <c r="B74" s="22"/>
       <c r="C74" s="21"/>
@@ -3067,7 +3689,7 @@
       <c r="F74" s="23"/>
       <c r="G74" s="21"/>
       <c r="H74" s="23"/>
-      <c r="I74" s="27"/>
+      <c r="I74" s="28"/>
       <c r="J74" s="21"/>
       <c r="K74" s="21"/>
       <c r="L74" s="21"/>
@@ -3079,7 +3701,7 @@
       <c r="R74" s="21"/>
       <c r="S74" s="22"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" ht="16.5" spans="1:19">
       <c r="A75" s="21"/>
       <c r="B75" s="22"/>
       <c r="C75" s="21"/>
@@ -3088,7 +3710,7 @@
       <c r="F75" s="23"/>
       <c r="G75" s="21"/>
       <c r="H75" s="23"/>
-      <c r="I75" s="27"/>
+      <c r="I75" s="28"/>
       <c r="J75" s="21"/>
       <c r="K75" s="21"/>
       <c r="L75" s="21"/>
@@ -3100,7 +3722,7 @@
       <c r="R75" s="21"/>
       <c r="S75" s="22"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" ht="16.5" spans="1:19">
       <c r="A76" s="21"/>
       <c r="B76" s="22"/>
       <c r="C76" s="21"/>
@@ -3109,7 +3731,7 @@
       <c r="F76" s="23"/>
       <c r="G76" s="21"/>
       <c r="H76" s="23"/>
-      <c r="I76" s="27"/>
+      <c r="I76" s="28"/>
       <c r="J76" s="21"/>
       <c r="K76" s="21"/>
       <c r="L76" s="21"/>
@@ -3121,7 +3743,7 @@
       <c r="R76" s="21"/>
       <c r="S76" s="22"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" ht="16.5" spans="1:19">
       <c r="A77" s="21"/>
       <c r="B77" s="22"/>
       <c r="C77" s="21"/>
@@ -3130,7 +3752,7 @@
       <c r="F77" s="23"/>
       <c r="G77" s="21"/>
       <c r="H77" s="23"/>
-      <c r="I77" s="27"/>
+      <c r="I77" s="28"/>
       <c r="J77" s="21"/>
       <c r="K77" s="21"/>
       <c r="L77" s="21"/>
@@ -3142,7 +3764,7 @@
       <c r="R77" s="21"/>
       <c r="S77" s="22"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" ht="16.5" spans="1:19">
       <c r="A78" s="21"/>
       <c r="B78" s="22"/>
       <c r="C78" s="21"/>
@@ -3151,7 +3773,7 @@
       <c r="F78" s="23"/>
       <c r="G78" s="21"/>
       <c r="H78" s="23"/>
-      <c r="I78" s="27"/>
+      <c r="I78" s="28"/>
       <c r="J78" s="21"/>
       <c r="K78" s="21"/>
       <c r="L78" s="21"/>
@@ -3163,7 +3785,7 @@
       <c r="R78" s="21"/>
       <c r="S78" s="22"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" ht="16.5" spans="1:19">
       <c r="A79" s="21"/>
       <c r="B79" s="22"/>
       <c r="C79" s="21"/>
@@ -3172,7 +3794,7 @@
       <c r="F79" s="23"/>
       <c r="G79" s="21"/>
       <c r="H79" s="23"/>
-      <c r="I79" s="27"/>
+      <c r="I79" s="28"/>
       <c r="J79" s="21"/>
       <c r="K79" s="21"/>
       <c r="L79" s="21"/>
@@ -3184,7 +3806,7 @@
       <c r="R79" s="21"/>
       <c r="S79" s="22"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" ht="16.5" spans="1:19">
       <c r="A80" s="21"/>
       <c r="B80" s="22"/>
       <c r="C80" s="21"/>
@@ -3193,7 +3815,7 @@
       <c r="F80" s="23"/>
       <c r="G80" s="21"/>
       <c r="H80" s="23"/>
-      <c r="I80" s="27"/>
+      <c r="I80" s="28"/>
       <c r="J80" s="21"/>
       <c r="K80" s="21"/>
       <c r="L80" s="21"/>
@@ -3205,7 +3827,7 @@
       <c r="R80" s="21"/>
       <c r="S80" s="22"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" ht="16.5" spans="1:19">
       <c r="A81" s="21"/>
       <c r="B81" s="22"/>
       <c r="C81" s="21"/>
@@ -3214,7 +3836,7 @@
       <c r="F81" s="23"/>
       <c r="G81" s="21"/>
       <c r="H81" s="23"/>
-      <c r="I81" s="27"/>
+      <c r="I81" s="28"/>
       <c r="J81" s="21"/>
       <c r="K81" s="21"/>
       <c r="L81" s="21"/>
@@ -3226,7 +3848,7 @@
       <c r="R81" s="21"/>
       <c r="S81" s="22"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" ht="16.5" spans="1:19">
       <c r="A82" s="21"/>
       <c r="B82" s="22"/>
       <c r="C82" s="21"/>
@@ -3235,7 +3857,7 @@
       <c r="F82" s="23"/>
       <c r="G82" s="21"/>
       <c r="H82" s="23"/>
-      <c r="I82" s="27"/>
+      <c r="I82" s="28"/>
       <c r="J82" s="21"/>
       <c r="K82" s="21"/>
       <c r="L82" s="21"/>
@@ -3247,7 +3869,7 @@
       <c r="R82" s="21"/>
       <c r="S82" s="22"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" ht="16.5" spans="1:19">
       <c r="A83" s="21"/>
       <c r="B83" s="22"/>
       <c r="C83" s="21"/>
@@ -3256,7 +3878,7 @@
       <c r="F83" s="23"/>
       <c r="G83" s="21"/>
       <c r="H83" s="23"/>
-      <c r="I83" s="27"/>
+      <c r="I83" s="28"/>
       <c r="J83" s="21"/>
       <c r="K83" s="21"/>
       <c r="L83" s="21"/>
@@ -3268,7 +3890,7 @@
       <c r="R83" s="21"/>
       <c r="S83" s="22"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" ht="16.5" spans="1:19">
       <c r="A84" s="21"/>
       <c r="B84" s="22"/>
       <c r="C84" s="21"/>
@@ -3277,7 +3899,7 @@
       <c r="F84" s="23"/>
       <c r="G84" s="21"/>
       <c r="H84" s="23"/>
-      <c r="I84" s="27"/>
+      <c r="I84" s="28"/>
       <c r="J84" s="21"/>
       <c r="K84" s="21"/>
       <c r="L84" s="21"/>
@@ -3289,7 +3911,7 @@
       <c r="R84" s="21"/>
       <c r="S84" s="22"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" ht="16.5" spans="1:19">
       <c r="A85" s="21"/>
       <c r="B85" s="22"/>
       <c r="C85" s="21"/>
@@ -3298,7 +3920,7 @@
       <c r="F85" s="23"/>
       <c r="G85" s="21"/>
       <c r="H85" s="23"/>
-      <c r="I85" s="27"/>
+      <c r="I85" s="28"/>
       <c r="J85" s="21"/>
       <c r="K85" s="21"/>
       <c r="L85" s="21"/>
@@ -3310,7 +3932,7 @@
       <c r="R85" s="21"/>
       <c r="S85" s="22"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" ht="16.5" spans="1:19">
       <c r="A86" s="21"/>
       <c r="B86" s="22"/>
       <c r="C86" s="21"/>
@@ -3319,7 +3941,7 @@
       <c r="F86" s="23"/>
       <c r="G86" s="21"/>
       <c r="H86" s="23"/>
-      <c r="I86" s="27"/>
+      <c r="I86" s="28"/>
       <c r="J86" s="21"/>
       <c r="K86" s="21"/>
       <c r="L86" s="21"/>
@@ -3331,7 +3953,7 @@
       <c r="R86" s="21"/>
       <c r="S86" s="22"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" ht="16.5" spans="1:19">
       <c r="A87" s="21"/>
       <c r="B87" s="22"/>
       <c r="C87" s="21"/>
@@ -3340,7 +3962,7 @@
       <c r="F87" s="23"/>
       <c r="G87" s="21"/>
       <c r="H87" s="23"/>
-      <c r="I87" s="27"/>
+      <c r="I87" s="28"/>
       <c r="J87" s="21"/>
       <c r="K87" s="21"/>
       <c r="L87" s="21"/>
@@ -3352,7 +3974,7 @@
       <c r="R87" s="21"/>
       <c r="S87" s="22"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" ht="16.5" spans="1:19">
       <c r="A88" s="21"/>
       <c r="B88" s="22"/>
       <c r="C88" s="21"/>
@@ -3361,7 +3983,7 @@
       <c r="F88" s="23"/>
       <c r="G88" s="21"/>
       <c r="H88" s="23"/>
-      <c r="I88" s="27"/>
+      <c r="I88" s="28"/>
       <c r="J88" s="21"/>
       <c r="K88" s="21"/>
       <c r="L88" s="21"/>
@@ -3373,7 +3995,7 @@
       <c r="R88" s="21"/>
       <c r="S88" s="22"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" ht="16.5" spans="1:19">
       <c r="A89" s="21"/>
       <c r="B89" s="22"/>
       <c r="C89" s="21"/>
@@ -3382,7 +4004,7 @@
       <c r="F89" s="23"/>
       <c r="G89" s="21"/>
       <c r="H89" s="23"/>
-      <c r="I89" s="27"/>
+      <c r="I89" s="28"/>
       <c r="J89" s="21"/>
       <c r="K89" s="21"/>
       <c r="L89" s="21"/>
@@ -3394,7 +4016,7 @@
       <c r="R89" s="21"/>
       <c r="S89" s="22"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" ht="16.5" spans="1:19">
       <c r="A90" s="21"/>
       <c r="B90" s="22"/>
       <c r="C90" s="21"/>
@@ -3403,7 +4025,7 @@
       <c r="F90" s="23"/>
       <c r="G90" s="21"/>
       <c r="H90" s="23"/>
-      <c r="I90" s="27"/>
+      <c r="I90" s="28"/>
       <c r="J90" s="21"/>
       <c r="K90" s="21"/>
       <c r="L90" s="21"/>
@@ -3415,7 +4037,7 @@
       <c r="R90" s="21"/>
       <c r="S90" s="22"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" ht="16.5" spans="1:19">
       <c r="A91" s="21"/>
       <c r="B91" s="22"/>
       <c r="C91" s="21"/>
@@ -3424,7 +4046,7 @@
       <c r="F91" s="23"/>
       <c r="G91" s="21"/>
       <c r="H91" s="23"/>
-      <c r="I91" s="27"/>
+      <c r="I91" s="28"/>
       <c r="J91" s="21"/>
       <c r="K91" s="21"/>
       <c r="L91" s="21"/>
@@ -3436,7 +4058,7 @@
       <c r="R91" s="21"/>
       <c r="S91" s="22"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" ht="16.5" spans="1:19">
       <c r="A92" s="21"/>
       <c r="B92" s="22"/>
       <c r="C92" s="21"/>
@@ -3445,7 +4067,7 @@
       <c r="F92" s="23"/>
       <c r="G92" s="21"/>
       <c r="H92" s="23"/>
-      <c r="I92" s="27"/>
+      <c r="I92" s="28"/>
       <c r="J92" s="21"/>
       <c r="K92" s="21"/>
       <c r="L92" s="21"/>
@@ -3457,7 +4079,7 @@
       <c r="R92" s="21"/>
       <c r="S92" s="22"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" ht="16.5" spans="1:19">
       <c r="A93" s="21"/>
       <c r="B93" s="22"/>
       <c r="C93" s="21"/>
@@ -3466,7 +4088,7 @@
       <c r="F93" s="23"/>
       <c r="G93" s="21"/>
       <c r="H93" s="23"/>
-      <c r="I93" s="27"/>
+      <c r="I93" s="28"/>
       <c r="J93" s="21"/>
       <c r="K93" s="21"/>
       <c r="L93" s="21"/>
@@ -3478,7 +4100,7 @@
       <c r="R93" s="21"/>
       <c r="S93" s="22"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" ht="16.5" spans="1:19">
       <c r="A94" s="21"/>
       <c r="B94" s="22"/>
       <c r="C94" s="21"/>
@@ -3487,7 +4109,7 @@
       <c r="F94" s="23"/>
       <c r="G94" s="21"/>
       <c r="H94" s="23"/>
-      <c r="I94" s="27"/>
+      <c r="I94" s="28"/>
       <c r="J94" s="21"/>
       <c r="K94" s="21"/>
       <c r="L94" s="21"/>
@@ -3499,7 +4121,7 @@
       <c r="R94" s="21"/>
       <c r="S94" s="22"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" ht="16.5" spans="1:19">
       <c r="A95" s="21"/>
       <c r="B95" s="22"/>
       <c r="C95" s="21"/>
@@ -3508,7 +4130,7 @@
       <c r="F95" s="23"/>
       <c r="G95" s="21"/>
       <c r="H95" s="23"/>
-      <c r="I95" s="27"/>
+      <c r="I95" s="28"/>
       <c r="J95" s="21"/>
       <c r="K95" s="21"/>
       <c r="L95" s="21"/>
@@ -3520,7 +4142,7 @@
       <c r="R95" s="21"/>
       <c r="S95" s="22"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" ht="16.5" spans="1:19">
       <c r="A96" s="21"/>
       <c r="B96" s="22"/>
       <c r="C96" s="21"/>
@@ -3529,7 +4151,7 @@
       <c r="F96" s="23"/>
       <c r="G96" s="21"/>
       <c r="H96" s="23"/>
-      <c r="I96" s="27"/>
+      <c r="I96" s="28"/>
       <c r="J96" s="21"/>
       <c r="K96" s="21"/>
       <c r="L96" s="21"/>
@@ -3541,7 +4163,7 @@
       <c r="R96" s="21"/>
       <c r="S96" s="22"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" ht="16.5" spans="1:19">
       <c r="A97" s="21"/>
       <c r="B97" s="22"/>
       <c r="C97" s="21"/>
@@ -3550,7 +4172,7 @@
       <c r="F97" s="23"/>
       <c r="G97" s="21"/>
       <c r="H97" s="23"/>
-      <c r="I97" s="27"/>
+      <c r="I97" s="28"/>
       <c r="J97" s="21"/>
       <c r="K97" s="21"/>
       <c r="L97" s="21"/>
@@ -3571,7 +4193,7 @@
       <c r="F98" s="23"/>
       <c r="G98" s="21"/>
       <c r="H98" s="23"/>
-      <c r="I98" s="27"/>
+      <c r="I98" s="28"/>
       <c r="J98" s="21"/>
       <c r="K98" s="21"/>
       <c r="L98" s="21"/>
@@ -3592,7 +4214,7 @@
       <c r="F99" s="23"/>
       <c r="G99" s="21"/>
       <c r="H99" s="23"/>
-      <c r="I99" s="27"/>
+      <c r="I99" s="28"/>
       <c r="J99" s="21"/>
       <c r="K99" s="21"/>
       <c r="L99" s="21"/>
@@ -3613,7 +4235,7 @@
       <c r="F100" s="23"/>
       <c r="G100" s="21"/>
       <c r="H100" s="23"/>
-      <c r="I100" s="27"/>
+      <c r="I100" s="28"/>
       <c r="J100" s="21"/>
       <c r="K100" s="21"/>
       <c r="L100" s="21"/>
@@ -3634,7 +4256,7 @@
       <c r="F101" s="23"/>
       <c r="G101" s="21"/>
       <c r="H101" s="23"/>
-      <c r="I101" s="27"/>
+      <c r="I101" s="28"/>
       <c r="J101" s="21"/>
       <c r="K101" s="21"/>
       <c r="L101" s="21"/>
@@ -3655,7 +4277,7 @@
       <c r="F102" s="23"/>
       <c r="G102" s="21"/>
       <c r="H102" s="23"/>
-      <c r="I102" s="27"/>
+      <c r="I102" s="28"/>
       <c r="J102" s="21"/>
       <c r="K102" s="21"/>
       <c r="L102" s="21"/>
@@ -3676,7 +4298,7 @@
       <c r="F103" s="23"/>
       <c r="G103" s="21"/>
       <c r="H103" s="23"/>
-      <c r="I103" s="27"/>
+      <c r="I103" s="28"/>
       <c r="J103" s="21"/>
       <c r="K103" s="21"/>
       <c r="L103" s="21"/>
@@ -3697,7 +4319,7 @@
       <c r="F104" s="23"/>
       <c r="G104" s="21"/>
       <c r="H104" s="23"/>
-      <c r="I104" s="27"/>
+      <c r="I104" s="28"/>
       <c r="J104" s="21"/>
       <c r="K104" s="21"/>
       <c r="L104" s="21"/>
@@ -3718,7 +4340,7 @@
       <c r="F105" s="23"/>
       <c r="G105" s="21"/>
       <c r="H105" s="23"/>
-      <c r="I105" s="27"/>
+      <c r="I105" s="28"/>
       <c r="J105" s="21"/>
       <c r="K105" s="21"/>
       <c r="L105" s="21"/>
@@ -3739,7 +4361,7 @@
       <c r="F106" s="23"/>
       <c r="G106" s="21"/>
       <c r="H106" s="23"/>
-      <c r="I106" s="27"/>
+      <c r="I106" s="28"/>
       <c r="J106" s="21"/>
       <c r="K106" s="21"/>
       <c r="L106" s="21"/>
@@ -3760,7 +4382,7 @@
       <c r="F107" s="23"/>
       <c r="G107" s="21"/>
       <c r="H107" s="23"/>
-      <c r="I107" s="27"/>
+      <c r="I107" s="28"/>
       <c r="J107" s="21"/>
       <c r="K107" s="21"/>
       <c r="L107" s="21"/>
@@ -3781,7 +4403,7 @@
       <c r="F108" s="23"/>
       <c r="G108" s="21"/>
       <c r="H108" s="23"/>
-      <c r="I108" s="27"/>
+      <c r="I108" s="28"/>
       <c r="J108" s="21"/>
       <c r="K108" s="21"/>
       <c r="L108" s="21"/>
@@ -3802,7 +4424,7 @@
       <c r="F109" s="23"/>
       <c r="G109" s="21"/>
       <c r="H109" s="23"/>
-      <c r="I109" s="27"/>
+      <c r="I109" s="28"/>
       <c r="J109" s="21"/>
       <c r="K109" s="21"/>
       <c r="L109" s="21"/>
@@ -3823,7 +4445,7 @@
       <c r="F110" s="23"/>
       <c r="G110" s="21"/>
       <c r="H110" s="23"/>
-      <c r="I110" s="27"/>
+      <c r="I110" s="28"/>
       <c r="J110" s="21"/>
       <c r="K110" s="21"/>
       <c r="L110" s="21"/>
@@ -3844,7 +4466,7 @@
       <c r="F111" s="23"/>
       <c r="G111" s="21"/>
       <c r="H111" s="23"/>
-      <c r="I111" s="27"/>
+      <c r="I111" s="28"/>
       <c r="J111" s="21"/>
       <c r="K111" s="21"/>
       <c r="L111" s="21"/>
@@ -3865,7 +4487,7 @@
       <c r="F112" s="23"/>
       <c r="G112" s="21"/>
       <c r="H112" s="23"/>
-      <c r="I112" s="27"/>
+      <c r="I112" s="28"/>
       <c r="J112" s="21"/>
       <c r="K112" s="21"/>
       <c r="L112" s="21"/>
@@ -3886,7 +4508,7 @@
       <c r="F113" s="23"/>
       <c r="G113" s="21"/>
       <c r="H113" s="23"/>
-      <c r="I113" s="27"/>
+      <c r="I113" s="28"/>
       <c r="J113" s="21"/>
       <c r="K113" s="21"/>
       <c r="L113" s="21"/>
@@ -3907,7 +4529,7 @@
       <c r="F114" s="23"/>
       <c r="G114" s="21"/>
       <c r="H114" s="23"/>
-      <c r="I114" s="27"/>
+      <c r="I114" s="28"/>
       <c r="J114" s="21"/>
       <c r="K114" s="21"/>
       <c r="L114" s="21"/>
@@ -3928,7 +4550,7 @@
       <c r="F115" s="23"/>
       <c r="G115" s="21"/>
       <c r="H115" s="23"/>
-      <c r="I115" s="27"/>
+      <c r="I115" s="28"/>
       <c r="J115" s="21"/>
       <c r="K115" s="21"/>
       <c r="L115" s="21"/>
@@ -3949,7 +4571,7 @@
       <c r="F116" s="23"/>
       <c r="G116" s="21"/>
       <c r="H116" s="23"/>
-      <c r="I116" s="27"/>
+      <c r="I116" s="28"/>
       <c r="J116" s="21"/>
       <c r="K116" s="21"/>
       <c r="L116" s="21"/>
@@ -3970,7 +4592,7 @@
       <c r="F117" s="23"/>
       <c r="G117" s="21"/>
       <c r="H117" s="23"/>
-      <c r="I117" s="27"/>
+      <c r="I117" s="28"/>
       <c r="J117" s="21"/>
       <c r="K117" s="21"/>
       <c r="L117" s="21"/>
@@ -3991,7 +4613,7 @@
       <c r="F118" s="23"/>
       <c r="G118" s="21"/>
       <c r="H118" s="23"/>
-      <c r="I118" s="27"/>
+      <c r="I118" s="28"/>
       <c r="J118" s="21"/>
       <c r="K118" s="21"/>
       <c r="L118" s="21"/>
@@ -4012,7 +4634,7 @@
       <c r="F119" s="23"/>
       <c r="G119" s="21"/>
       <c r="H119" s="23"/>
-      <c r="I119" s="27"/>
+      <c r="I119" s="28"/>
       <c r="J119" s="21"/>
       <c r="K119" s="21"/>
       <c r="L119" s="21"/>
@@ -4033,7 +4655,7 @@
       <c r="F120" s="23"/>
       <c r="G120" s="21"/>
       <c r="H120" s="23"/>
-      <c r="I120" s="27"/>
+      <c r="I120" s="28"/>
       <c r="J120" s="21"/>
       <c r="K120" s="21"/>
       <c r="L120" s="21"/>
@@ -4054,7 +4676,7 @@
       <c r="F121" s="23"/>
       <c r="G121" s="21"/>
       <c r="H121" s="23"/>
-      <c r="I121" s="27"/>
+      <c r="I121" s="28"/>
       <c r="J121" s="21"/>
       <c r="K121" s="21"/>
       <c r="L121" s="21"/>
@@ -4075,7 +4697,7 @@
       <c r="F122" s="23"/>
       <c r="G122" s="21"/>
       <c r="H122" s="23"/>
-      <c r="I122" s="27"/>
+      <c r="I122" s="28"/>
       <c r="J122" s="21"/>
       <c r="K122" s="21"/>
       <c r="L122" s="21"/>
@@ -4096,7 +4718,7 @@
       <c r="F123" s="23"/>
       <c r="G123" s="21"/>
       <c r="H123" s="23"/>
-      <c r="I123" s="27"/>
+      <c r="I123" s="28"/>
       <c r="J123" s="21"/>
       <c r="K123" s="21"/>
       <c r="L123" s="21"/>
@@ -4117,7 +4739,7 @@
       <c r="F124" s="23"/>
       <c r="G124" s="21"/>
       <c r="H124" s="23"/>
-      <c r="I124" s="27"/>
+      <c r="I124" s="28"/>
       <c r="J124" s="21"/>
       <c r="K124" s="21"/>
       <c r="L124" s="21"/>
@@ -4138,7 +4760,7 @@
       <c r="F125" s="23"/>
       <c r="G125" s="21"/>
       <c r="H125" s="23"/>
-      <c r="I125" s="27"/>
+      <c r="I125" s="28"/>
       <c r="J125" s="21"/>
       <c r="K125" s="21"/>
       <c r="L125" s="21"/>
@@ -4159,7 +4781,7 @@
       <c r="F126" s="23"/>
       <c r="G126" s="21"/>
       <c r="H126" s="23"/>
-      <c r="I126" s="27"/>
+      <c r="I126" s="28"/>
       <c r="J126" s="21"/>
       <c r="K126" s="21"/>
       <c r="L126" s="21"/>
@@ -4180,7 +4802,7 @@
       <c r="F127" s="23"/>
       <c r="G127" s="21"/>
       <c r="H127" s="23"/>
-      <c r="I127" s="27"/>
+      <c r="I127" s="28"/>
       <c r="J127" s="21"/>
       <c r="K127" s="21"/>
       <c r="L127" s="21"/>
@@ -4201,7 +4823,7 @@
       <c r="F128" s="23"/>
       <c r="G128" s="21"/>
       <c r="H128" s="23"/>
-      <c r="I128" s="27"/>
+      <c r="I128" s="28"/>
       <c r="J128" s="21"/>
       <c r="K128" s="21"/>
       <c r="L128" s="21"/>
@@ -4222,7 +4844,7 @@
       <c r="F129" s="23"/>
       <c r="G129" s="21"/>
       <c r="H129" s="23"/>
-      <c r="I129" s="27"/>
+      <c r="I129" s="28"/>
       <c r="J129" s="21"/>
       <c r="K129" s="21"/>
       <c r="L129" s="21"/>
@@ -4243,7 +4865,7 @@
       <c r="F130" s="23"/>
       <c r="G130" s="21"/>
       <c r="H130" s="23"/>
-      <c r="I130" s="27"/>
+      <c r="I130" s="28"/>
       <c r="J130" s="21"/>
       <c r="K130" s="21"/>
       <c r="L130" s="21"/>
@@ -4264,7 +4886,7 @@
       <c r="F131" s="23"/>
       <c r="G131" s="21"/>
       <c r="H131" s="23"/>
-      <c r="I131" s="27"/>
+      <c r="I131" s="28"/>
       <c r="J131" s="21"/>
       <c r="K131" s="21"/>
       <c r="L131" s="21"/>
@@ -4285,7 +4907,7 @@
       <c r="F132" s="23"/>
       <c r="G132" s="21"/>
       <c r="H132" s="23"/>
-      <c r="I132" s="27"/>
+      <c r="I132" s="28"/>
       <c r="J132" s="21"/>
       <c r="K132" s="21"/>
       <c r="L132" s="21"/>
@@ -4306,7 +4928,7 @@
       <c r="F133" s="23"/>
       <c r="G133" s="21"/>
       <c r="H133" s="23"/>
-      <c r="I133" s="27"/>
+      <c r="I133" s="28"/>
       <c r="J133" s="21"/>
       <c r="K133" s="21"/>
       <c r="L133" s="21"/>
@@ -4327,7 +4949,7 @@
       <c r="F134" s="23"/>
       <c r="G134" s="21"/>
       <c r="H134" s="23"/>
-      <c r="I134" s="27"/>
+      <c r="I134" s="28"/>
       <c r="J134" s="21"/>
       <c r="K134" s="21"/>
       <c r="L134" s="21"/>
@@ -4348,7 +4970,7 @@
       <c r="F135" s="23"/>
       <c r="G135" s="21"/>
       <c r="H135" s="23"/>
-      <c r="I135" s="27"/>
+      <c r="I135" s="28"/>
       <c r="J135" s="21"/>
       <c r="K135" s="21"/>
       <c r="L135" s="21"/>
@@ -4369,7 +4991,7 @@
       <c r="F136" s="23"/>
       <c r="G136" s="21"/>
       <c r="H136" s="23"/>
-      <c r="I136" s="27"/>
+      <c r="I136" s="28"/>
       <c r="J136" s="21"/>
       <c r="K136" s="21"/>
       <c r="L136" s="21"/>
@@ -4390,7 +5012,7 @@
       <c r="F137" s="23"/>
       <c r="G137" s="21"/>
       <c r="H137" s="23"/>
-      <c r="I137" s="27"/>
+      <c r="I137" s="28"/>
       <c r="J137" s="21"/>
       <c r="K137" s="21"/>
       <c r="L137" s="21"/>
@@ -4411,7 +5033,7 @@
       <c r="F138" s="23"/>
       <c r="G138" s="21"/>
       <c r="H138" s="23"/>
-      <c r="I138" s="27"/>
+      <c r="I138" s="28"/>
       <c r="J138" s="21"/>
       <c r="K138" s="21"/>
       <c r="L138" s="21"/>
@@ -4432,7 +5054,7 @@
       <c r="F139" s="23"/>
       <c r="G139" s="21"/>
       <c r="H139" s="23"/>
-      <c r="I139" s="27"/>
+      <c r="I139" s="28"/>
       <c r="J139" s="21"/>
       <c r="K139" s="21"/>
       <c r="L139" s="21"/>
@@ -4453,7 +5075,7 @@
       <c r="F140" s="23"/>
       <c r="G140" s="21"/>
       <c r="H140" s="23"/>
-      <c r="I140" s="27"/>
+      <c r="I140" s="28"/>
       <c r="J140" s="21"/>
       <c r="K140" s="21"/>
       <c r="L140" s="21"/>
@@ -4474,7 +5096,7 @@
       <c r="F141" s="23"/>
       <c r="G141" s="21"/>
       <c r="H141" s="23"/>
-      <c r="I141" s="27"/>
+      <c r="I141" s="28"/>
       <c r="J141" s="21"/>
       <c r="K141" s="21"/>
       <c r="L141" s="21"/>
@@ -4495,7 +5117,7 @@
       <c r="F142" s="23"/>
       <c r="G142" s="21"/>
       <c r="H142" s="23"/>
-      <c r="I142" s="27"/>
+      <c r="I142" s="28"/>
       <c r="J142" s="21"/>
       <c r="K142" s="21"/>
       <c r="L142" s="21"/>
@@ -4516,7 +5138,7 @@
       <c r="F143" s="23"/>
       <c r="G143" s="21"/>
       <c r="H143" s="23"/>
-      <c r="I143" s="27"/>
+      <c r="I143" s="28"/>
       <c r="J143" s="21"/>
       <c r="K143" s="21"/>
       <c r="L143" s="21"/>
@@ -4537,7 +5159,7 @@
       <c r="F144" s="23"/>
       <c r="G144" s="21"/>
       <c r="H144" s="23"/>
-      <c r="I144" s="27"/>
+      <c r="I144" s="28"/>
       <c r="J144" s="21"/>
       <c r="K144" s="21"/>
       <c r="L144" s="21"/>
@@ -4558,7 +5180,7 @@
       <c r="F145" s="23"/>
       <c r="G145" s="21"/>
       <c r="H145" s="23"/>
-      <c r="I145" s="27"/>
+      <c r="I145" s="28"/>
       <c r="J145" s="21"/>
       <c r="K145" s="21"/>
       <c r="L145" s="21"/>
@@ -4579,7 +5201,7 @@
       <c r="F146" s="23"/>
       <c r="G146" s="21"/>
       <c r="H146" s="23"/>
-      <c r="I146" s="27"/>
+      <c r="I146" s="28"/>
       <c r="J146" s="21"/>
       <c r="K146" s="21"/>
       <c r="L146" s="21"/>
@@ -4599,7 +5221,7 @@
       <c r="F147" s="23"/>
       <c r="G147" s="21"/>
       <c r="H147" s="23"/>
-      <c r="I147" s="27"/>
+      <c r="I147" s="28"/>
       <c r="J147" s="21"/>
       <c r="K147" s="21"/>
       <c r="L147" s="21"/>
@@ -4619,7 +5241,7 @@
       <c r="F148" s="23"/>
       <c r="G148" s="21"/>
       <c r="H148" s="23"/>
-      <c r="I148" s="27"/>
+      <c r="I148" s="28"/>
       <c r="J148" s="21"/>
       <c r="K148" s="21"/>
       <c r="L148" s="21"/>
@@ -4639,7 +5261,7 @@
       <c r="F149" s="23"/>
       <c r="G149" s="21"/>
       <c r="H149" s="23"/>
-      <c r="I149" s="27"/>
+      <c r="I149" s="28"/>
       <c r="J149" s="21"/>
       <c r="K149" s="21"/>
       <c r="L149" s="21"/>
@@ -4659,7 +5281,7 @@
       <c r="F150" s="23"/>
       <c r="G150" s="21"/>
       <c r="H150" s="23"/>
-      <c r="I150" s="27"/>
+      <c r="I150" s="28"/>
       <c r="J150" s="21"/>
       <c r="K150" s="21"/>
       <c r="L150" s="21"/>
@@ -4679,7 +5301,7 @@
       <c r="F151" s="23"/>
       <c r="G151" s="21"/>
       <c r="H151" s="23"/>
-      <c r="I151" s="27"/>
+      <c r="I151" s="28"/>
       <c r="J151" s="21"/>
       <c r="K151" s="21"/>
       <c r="L151" s="21"/>
@@ -4699,7 +5321,7 @@
       <c r="F152" s="23"/>
       <c r="G152" s="21"/>
       <c r="H152" s="23"/>
-      <c r="I152" s="27"/>
+      <c r="I152" s="28"/>
       <c r="J152" s="21"/>
       <c r="K152" s="21"/>
       <c r="L152" s="21"/>
@@ -4719,7 +5341,7 @@
       <c r="F153" s="23"/>
       <c r="G153" s="21"/>
       <c r="H153" s="23"/>
-      <c r="I153" s="27"/>
+      <c r="I153" s="28"/>
       <c r="J153" s="21"/>
       <c r="K153" s="21"/>
       <c r="L153" s="21"/>
@@ -4739,7 +5361,7 @@
       <c r="F154" s="23"/>
       <c r="G154" s="21"/>
       <c r="H154" s="23"/>
-      <c r="I154" s="27"/>
+      <c r="I154" s="28"/>
       <c r="J154" s="21"/>
       <c r="K154" s="21"/>
       <c r="L154" s="21"/>
@@ -4759,7 +5381,7 @@
       <c r="F155" s="23"/>
       <c r="G155" s="21"/>
       <c r="H155" s="23"/>
-      <c r="I155" s="27"/>
+      <c r="I155" s="28"/>
       <c r="J155" s="21"/>
       <c r="K155" s="21"/>
       <c r="L155" s="21"/>
@@ -4779,7 +5401,7 @@
       <c r="F156" s="23"/>
       <c r="G156" s="21"/>
       <c r="H156" s="23"/>
-      <c r="I156" s="27"/>
+      <c r="I156" s="28"/>
       <c r="J156" s="21"/>
       <c r="K156" s="21"/>
       <c r="L156" s="21"/>
@@ -4799,7 +5421,7 @@
       <c r="F157" s="23"/>
       <c r="G157" s="21"/>
       <c r="H157" s="23"/>
-      <c r="I157" s="27"/>
+      <c r="I157" s="28"/>
       <c r="J157" s="21"/>
       <c r="K157" s="21"/>
       <c r="L157" s="21"/>
@@ -4819,7 +5441,7 @@
       <c r="F158" s="23"/>
       <c r="G158" s="21"/>
       <c r="H158" s="23"/>
-      <c r="I158" s="27"/>
+      <c r="I158" s="28"/>
       <c r="J158" s="21"/>
       <c r="K158" s="21"/>
       <c r="L158" s="21"/>
@@ -4837,7 +5459,7 @@
       <c r="F159" s="23"/>
       <c r="G159" s="21"/>
       <c r="H159" s="23"/>
-      <c r="I159" s="27"/>
+      <c r="I159" s="28"/>
       <c r="J159" s="21"/>
       <c r="K159" s="21"/>
       <c r="L159" s="21"/>
@@ -4855,7 +5477,7 @@
       <c r="F160" s="23"/>
       <c r="G160" s="21"/>
       <c r="H160" s="23"/>
-      <c r="I160" s="27"/>
+      <c r="I160" s="28"/>
       <c r="J160" s="21"/>
       <c r="K160" s="21"/>
       <c r="L160" s="21"/>
@@ -4873,7 +5495,7 @@
       <c r="F161" s="23"/>
       <c r="G161" s="21"/>
       <c r="H161" s="23"/>
-      <c r="I161" s="27"/>
+      <c r="I161" s="28"/>
       <c r="J161" s="21"/>
       <c r="K161" s="21"/>
       <c r="L161" s="21"/>
@@ -4891,7 +5513,7 @@
       <c r="F162" s="23"/>
       <c r="G162" s="21"/>
       <c r="H162" s="23"/>
-      <c r="I162" s="27"/>
+      <c r="I162" s="28"/>
       <c r="J162" s="21"/>
       <c r="K162" s="21"/>
       <c r="L162" s="21"/>
@@ -4909,7 +5531,7 @@
       <c r="F163" s="23"/>
       <c r="G163" s="21"/>
       <c r="H163" s="23"/>
-      <c r="I163" s="27"/>
+      <c r="I163" s="28"/>
       <c r="J163" s="21"/>
       <c r="K163" s="21"/>
       <c r="L163" s="21"/>
@@ -4927,7 +5549,7 @@
       <c r="F164" s="23"/>
       <c r="G164" s="21"/>
       <c r="H164" s="23"/>
-      <c r="I164" s="27"/>
+      <c r="I164" s="28"/>
       <c r="J164" s="21"/>
       <c r="K164" s="21"/>
       <c r="L164" s="21"/>
@@ -4945,7 +5567,7 @@
       <c r="F165" s="23"/>
       <c r="G165" s="21"/>
       <c r="H165" s="23"/>
-      <c r="I165" s="27"/>
+      <c r="I165" s="28"/>
       <c r="J165" s="21"/>
       <c r="K165" s="21"/>
       <c r="L165" s="21"/>
@@ -4963,7 +5585,7 @@
       <c r="F166" s="23"/>
       <c r="G166" s="21"/>
       <c r="H166" s="23"/>
-      <c r="I166" s="27"/>
+      <c r="I166" s="28"/>
       <c r="J166" s="21"/>
       <c r="K166" s="21"/>
       <c r="L166" s="21"/>
@@ -4981,7 +5603,7 @@
       <c r="F167" s="23"/>
       <c r="G167" s="21"/>
       <c r="H167" s="23"/>
-      <c r="I167" s="27"/>
+      <c r="I167" s="28"/>
       <c r="J167" s="21"/>
       <c r="K167" s="21"/>
       <c r="L167" s="21"/>
@@ -4999,7 +5621,7 @@
       <c r="F168" s="23"/>
       <c r="G168" s="21"/>
       <c r="H168" s="23"/>
-      <c r="I168" s="27"/>
+      <c r="I168" s="28"/>
       <c r="J168" s="21"/>
       <c r="K168" s="21"/>
       <c r="L168" s="21"/>
@@ -5017,7 +5639,7 @@
       <c r="F169" s="23"/>
       <c r="G169" s="21"/>
       <c r="H169" s="23"/>
-      <c r="I169" s="27"/>
+      <c r="I169" s="28"/>
       <c r="J169" s="21"/>
       <c r="K169" s="21"/>
       <c r="L169" s="21"/>
@@ -5035,7 +5657,7 @@
       <c r="F170" s="23"/>
       <c r="G170" s="21"/>
       <c r="H170" s="23"/>
-      <c r="I170" s="27"/>
+      <c r="I170" s="28"/>
       <c r="J170" s="21"/>
       <c r="K170" s="21"/>
       <c r="L170" s="21"/>
@@ -5053,7 +5675,7 @@
       <c r="F171" s="23"/>
       <c r="G171" s="21"/>
       <c r="H171" s="23"/>
-      <c r="I171" s="27"/>
+      <c r="I171" s="28"/>
       <c r="J171" s="21"/>
       <c r="K171" s="21"/>
       <c r="L171" s="21"/>
@@ -5071,7 +5693,7 @@
       <c r="F172" s="23"/>
       <c r="G172" s="21"/>
       <c r="H172" s="23"/>
-      <c r="I172" s="27"/>
+      <c r="I172" s="28"/>
       <c r="J172" s="21"/>
       <c r="K172" s="21"/>
       <c r="L172" s="21"/>
@@ -5089,7 +5711,7 @@
       <c r="F173" s="23"/>
       <c r="G173" s="21"/>
       <c r="H173" s="23"/>
-      <c r="I173" s="27"/>
+      <c r="I173" s="28"/>
       <c r="J173" s="21"/>
       <c r="K173" s="21"/>
       <c r="L173" s="21"/>
@@ -5107,7 +5729,7 @@
       <c r="F174" s="23"/>
       <c r="G174" s="21"/>
       <c r="H174" s="23"/>
-      <c r="I174" s="27"/>
+      <c r="I174" s="28"/>
       <c r="J174" s="21"/>
       <c r="K174" s="21"/>
       <c r="L174" s="21"/>
@@ -5125,7 +5747,7 @@
       <c r="F175" s="23"/>
       <c r="G175" s="21"/>
       <c r="H175" s="23"/>
-      <c r="I175" s="27"/>
+      <c r="I175" s="28"/>
       <c r="J175" s="21"/>
       <c r="K175" s="21"/>
       <c r="L175" s="21"/>
@@ -5143,7 +5765,7 @@
       <c r="F176" s="23"/>
       <c r="G176" s="21"/>
       <c r="H176" s="23"/>
-      <c r="I176" s="27"/>
+      <c r="I176" s="28"/>
       <c r="J176" s="21"/>
       <c r="K176" s="21"/>
       <c r="L176" s="21"/>
@@ -5161,7 +5783,7 @@
       <c r="F177" s="23"/>
       <c r="G177" s="21"/>
       <c r="H177" s="23"/>
-      <c r="I177" s="27"/>
+      <c r="I177" s="28"/>
       <c r="J177" s="21"/>
       <c r="K177" s="21"/>
       <c r="L177" s="21"/>
@@ -5179,7 +5801,7 @@
       <c r="F178" s="23"/>
       <c r="G178" s="21"/>
       <c r="H178" s="23"/>
-      <c r="I178" s="27"/>
+      <c r="I178" s="28"/>
       <c r="J178" s="21"/>
       <c r="K178" s="21"/>
       <c r="L178" s="21"/>
@@ -5197,7 +5819,7 @@
       <c r="F179" s="23"/>
       <c r="G179" s="21"/>
       <c r="H179" s="23"/>
-      <c r="I179" s="27"/>
+      <c r="I179" s="28"/>
       <c r="J179" s="21"/>
       <c r="K179" s="21"/>
       <c r="L179" s="21"/>
@@ -5215,7 +5837,7 @@
       <c r="F180" s="23"/>
       <c r="G180" s="21"/>
       <c r="H180" s="23"/>
-      <c r="I180" s="27"/>
+      <c r="I180" s="28"/>
       <c r="J180" s="21"/>
       <c r="K180" s="21"/>
       <c r="L180" s="21"/>
@@ -5233,7 +5855,7 @@
       <c r="F181" s="23"/>
       <c r="G181" s="21"/>
       <c r="H181" s="23"/>
-      <c r="I181" s="27"/>
+      <c r="I181" s="28"/>
       <c r="J181" s="21"/>
       <c r="K181" s="21"/>
       <c r="L181" s="21"/>
@@ -5251,7 +5873,7 @@
       <c r="F182" s="23"/>
       <c r="G182" s="21"/>
       <c r="H182" s="23"/>
-      <c r="I182" s="27"/>
+      <c r="I182" s="28"/>
       <c r="J182" s="21"/>
       <c r="K182" s="21"/>
       <c r="L182" s="21"/>
@@ -5269,7 +5891,7 @@
       <c r="F183" s="23"/>
       <c r="G183" s="21"/>
       <c r="H183" s="23"/>
-      <c r="I183" s="27"/>
+      <c r="I183" s="28"/>
       <c r="J183" s="21"/>
       <c r="K183" s="21"/>
       <c r="L183" s="21"/>
@@ -5287,7 +5909,7 @@
       <c r="F184" s="23"/>
       <c r="G184" s="21"/>
       <c r="H184" s="23"/>
-      <c r="I184" s="27"/>
+      <c r="I184" s="28"/>
       <c r="J184" s="21"/>
       <c r="K184" s="21"/>
       <c r="L184" s="21"/>
@@ -5305,7 +5927,7 @@
       <c r="F185" s="23"/>
       <c r="G185" s="21"/>
       <c r="H185" s="23"/>
-      <c r="I185" s="27"/>
+      <c r="I185" s="28"/>
       <c r="J185" s="21"/>
       <c r="K185" s="21"/>
       <c r="L185" s="21"/>
@@ -5323,7 +5945,7 @@
       <c r="F186" s="23"/>
       <c r="G186" s="21"/>
       <c r="H186" s="23"/>
-      <c r="I186" s="27"/>
+      <c r="I186" s="28"/>
       <c r="J186" s="21"/>
       <c r="K186" s="21"/>
       <c r="L186" s="21"/>
@@ -5341,7 +5963,7 @@
       <c r="F187" s="23"/>
       <c r="G187" s="21"/>
       <c r="H187" s="23"/>
-      <c r="I187" s="27"/>
+      <c r="I187" s="28"/>
       <c r="J187" s="21"/>
       <c r="K187" s="21"/>
       <c r="L187" s="21"/>
@@ -5359,7 +5981,7 @@
       <c r="F188" s="23"/>
       <c r="G188" s="21"/>
       <c r="H188" s="23"/>
-      <c r="I188" s="27"/>
+      <c r="I188" s="28"/>
       <c r="J188" s="21"/>
       <c r="K188" s="21"/>
       <c r="L188" s="21"/>
@@ -5377,7 +5999,7 @@
       <c r="F189" s="23"/>
       <c r="G189" s="21"/>
       <c r="H189" s="23"/>
-      <c r="I189" s="27"/>
+      <c r="I189" s="28"/>
       <c r="J189" s="21"/>
       <c r="K189" s="21"/>
       <c r="L189" s="21"/>
@@ -5395,7 +6017,7 @@
       <c r="F190" s="23"/>
       <c r="G190" s="21"/>
       <c r="H190" s="23"/>
-      <c r="I190" s="27"/>
+      <c r="I190" s="28"/>
       <c r="J190" s="21"/>
       <c r="K190" s="21"/>
       <c r="L190" s="21"/>
@@ -5413,7 +6035,7 @@
       <c r="F191" s="23"/>
       <c r="G191" s="21"/>
       <c r="H191" s="23"/>
-      <c r="I191" s="27"/>
+      <c r="I191" s="28"/>
       <c r="J191" s="21"/>
       <c r="K191" s="21"/>
       <c r="L191" s="21"/>
@@ -5431,7 +6053,7 @@
       <c r="F192" s="23"/>
       <c r="G192" s="21"/>
       <c r="H192" s="23"/>
-      <c r="I192" s="27"/>
+      <c r="I192" s="28"/>
       <c r="J192" s="21"/>
       <c r="K192" s="21"/>
       <c r="L192" s="21"/>
@@ -5441,24 +6063,23 @@
       <c r="S192" s="22"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S20">
-    <filterColumn colId="11"/>
-  </autoFilter>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <autoFilter ref="A1:S21"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5471,31 +6092,31 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3">
@@ -5678,12 +6299,12 @@
       <c r="H19" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
       <formula1>"致命,严重,一般,轻微"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>